--- a/csv/有意差マークつけるやつ.xlsx
+++ b/csv/有意差マークつけるやつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyakooti/repositories/arai_MATLAB_program/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EFF9EF-5B3F-F24B-BFD2-3710D6BD6B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E53C6CA-FD20-6541-9993-49D70EC84E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="correlation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="89">
   <si>
     <t>boredom</t>
     <phoneticPr fontId="18"/>
@@ -335,6 +335,22 @@
   </si>
   <si>
     <t>without</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>absorb</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>difficulty</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>fast</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>fulfillment</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1512,15 +1528,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:X67"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:48">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1536,8 +1552,20 @@
       <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:48">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1570,8 +1598,68 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:48">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1594,8 +1682,96 @@
         <f t="shared" ref="G3:G32" si="0">IF(F3="","",IF(F3&lt;0.01,"**",IF(F3&lt;0.05,"*",IF(F3&lt;0.1,"†",""))))</f>
         <v/>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>76.992847729058397</v>
+      </c>
+      <c r="U3">
+        <v>7.6886137866928799</v>
+      </c>
+      <c r="V3">
+        <v>4.88368194113818E-2</v>
+      </c>
+      <c r="W3">
+        <v>0.82072442460706596</v>
+      </c>
+      <c r="X3" s="1" t="str">
+        <f>IF(W3="","",IF(W3&lt;0.01,"**",IF(W3&lt;0.05,"*",IF(W3&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3">
+        <v>76.992847729058397</v>
+      </c>
+      <c r="AC3">
+        <v>7.6886137866928799</v>
+      </c>
+      <c r="AD3">
+        <v>9.6266854114418196E-2</v>
+      </c>
+      <c r="AE3">
+        <v>0.65453222414539802</v>
+      </c>
+      <c r="AF3" s="1" t="str">
+        <f>IF(AE3="","",IF(AE3&lt;0.01,"**",IF(AE3&lt;0.05,"*",IF(AE3&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3">
+        <v>76.992847729058397</v>
+      </c>
+      <c r="AK3">
+        <v>7.6886137866928799</v>
+      </c>
+      <c r="AL3">
+        <v>9.6668383174360897E-2</v>
+      </c>
+      <c r="AM3">
+        <v>0.653179123232978</v>
+      </c>
+      <c r="AN3" s="1" t="str">
+        <f>IF(AM3="","",IF(AM3&lt;0.01,"**",IF(AM3&lt;0.05,"*",IF(AM3&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <v>76.992847729058397</v>
+      </c>
+      <c r="AS3">
+        <v>7.6886137866928799</v>
+      </c>
+      <c r="AT3">
+        <v>4.0416071059277199E-2</v>
+      </c>
+      <c r="AU3">
+        <v>0.85126562819053297</v>
+      </c>
+      <c r="AV3" s="1" t="str">
+        <f>IF(AU3="","",IF(AU3&lt;0.01,"**",IF(AU3&lt;0.05,"*",IF(AU3&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:48">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1618,8 +1794,96 @@
         <f t="shared" si="0"/>
         <v>†</v>
       </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <v>786.83911119807999</v>
+      </c>
+      <c r="U4">
+        <v>75.979015069049893</v>
+      </c>
+      <c r="V4">
+        <v>-5.0217718961980497E-2</v>
+      </c>
+      <c r="W4">
+        <v>0.81573887267587197</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f t="shared" ref="X4:X33" si="1">IF(W4="","",IF(W4&lt;0.01,"**",IF(W4&lt;0.05,"*",IF(W4&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4">
+        <v>786.83911119807999</v>
+      </c>
+      <c r="AC4">
+        <v>75.979015069049893</v>
+      </c>
+      <c r="AD4">
+        <v>-7.6054597375231306E-2</v>
+      </c>
+      <c r="AE4">
+        <v>0.72392958996798196</v>
+      </c>
+      <c r="AF4" s="1" t="str">
+        <f t="shared" ref="AF4:AF33" si="2">IF(AE4="","",IF(AE4&lt;0.01,"**",IF(AE4&lt;0.05,"*",IF(AE4&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ4">
+        <v>786.83911119807999</v>
+      </c>
+      <c r="AK4">
+        <v>75.979015069049893</v>
+      </c>
+      <c r="AL4">
+        <v>-9.6459342172669896E-2</v>
+      </c>
+      <c r="AM4">
+        <v>0.65388343229434598</v>
+      </c>
+      <c r="AN4" s="1" t="str">
+        <f t="shared" ref="AN4:AN33" si="3">IF(AM4="","",IF(AM4&lt;0.01,"**",IF(AM4&lt;0.05,"*",IF(AM4&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4">
+        <v>786.83911119807999</v>
+      </c>
+      <c r="AS4">
+        <v>75.979015069049893</v>
+      </c>
+      <c r="AT4">
+        <v>-3.0426093392317301E-2</v>
+      </c>
+      <c r="AU4">
+        <v>0.88776579038928605</v>
+      </c>
+      <c r="AV4" s="1" t="str">
+        <f t="shared" ref="AV4:AV33" si="4">IF(AU4="","",IF(AU4&lt;0.01,"**",IF(AU4&lt;0.05,"*",IF(AU4&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:48">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1642,8 +1906,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>457.90722851875302</v>
+      </c>
+      <c r="U5">
+        <v>296.83451801197998</v>
+      </c>
+      <c r="V5">
+        <v>-0.31204895547380901</v>
+      </c>
+      <c r="W5">
+        <v>0.137683938083872</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <v>457.90722851875302</v>
+      </c>
+      <c r="AC5">
+        <v>296.83451801197998</v>
+      </c>
+      <c r="AD5">
+        <v>-0.229114922099068</v>
+      </c>
+      <c r="AE5">
+        <v>0.281517531293978</v>
+      </c>
+      <c r="AF5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5">
+        <v>457.90722851875302</v>
+      </c>
+      <c r="AK5">
+        <v>296.83451801197998</v>
+      </c>
+      <c r="AL5">
+        <v>-0.48363987332823</v>
+      </c>
+      <c r="AM5">
+        <v>1.66468813879063E-2</v>
+      </c>
+      <c r="AN5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="AP5">
+        <v>2</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR5">
+        <v>457.90722851875302</v>
+      </c>
+      <c r="AS5">
+        <v>296.83451801197998</v>
+      </c>
+      <c r="AT5">
+        <v>-0.16143401094795201</v>
+      </c>
+      <c r="AU5">
+        <v>0.45108541951824399</v>
+      </c>
+      <c r="AV5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:48">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1666,8 +2018,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6">
+        <v>246.22669905485901</v>
+      </c>
+      <c r="U6">
+        <v>211.80479806210599</v>
+      </c>
+      <c r="V6">
+        <v>-0.25048898888731003</v>
+      </c>
+      <c r="W6">
+        <v>0.23777409043581699</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6">
+        <v>246.22669905485901</v>
+      </c>
+      <c r="AC6">
+        <v>211.80479806210599</v>
+      </c>
+      <c r="AD6">
+        <v>-4.3164968322396503E-2</v>
+      </c>
+      <c r="AE6">
+        <v>0.84127063662350199</v>
+      </c>
+      <c r="AF6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH6">
+        <v>3</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ6">
+        <v>246.22669905485901</v>
+      </c>
+      <c r="AK6">
+        <v>211.80479806210599</v>
+      </c>
+      <c r="AL6">
+        <v>-0.19888650537522001</v>
+      </c>
+      <c r="AM6">
+        <v>0.35150125023509299</v>
+      </c>
+      <c r="AN6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR6">
+        <v>246.22669905485901</v>
+      </c>
+      <c r="AS6">
+        <v>211.80479806210599</v>
+      </c>
+      <c r="AT6">
+        <v>-8.0236587704198198E-2</v>
+      </c>
+      <c r="AU6">
+        <v>0.709375241281748</v>
+      </c>
+      <c r="AV6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:48">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1690,8 +2130,96 @@
         <f t="shared" si="0"/>
         <v>*</v>
       </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <v>2.4644840925564702</v>
+      </c>
+      <c r="U7">
+        <v>1.4004588174291099</v>
+      </c>
+      <c r="V7">
+        <v>0.164215813484408</v>
+      </c>
+      <c r="W7">
+        <v>0.44321769757430901</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7">
+        <v>2.4644840925564702</v>
+      </c>
+      <c r="AC7">
+        <v>1.4004588174291099</v>
+      </c>
+      <c r="AD7">
+        <v>-2.77504155182915E-2</v>
+      </c>
+      <c r="AE7">
+        <v>0.89758265880606503</v>
+      </c>
+      <c r="AF7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH7">
+        <v>4</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ7">
+        <v>2.4644840925564702</v>
+      </c>
+      <c r="AK7">
+        <v>1.4004588174291099</v>
+      </c>
+      <c r="AL7">
+        <v>-2.92281632029571E-2</v>
+      </c>
+      <c r="AM7">
+        <v>0.89215901570370504</v>
+      </c>
+      <c r="AN7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP7">
+        <v>4</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR7">
+        <v>2.4644840925564702</v>
+      </c>
+      <c r="AS7">
+        <v>1.4004588174291099</v>
+      </c>
+      <c r="AT7">
+        <v>5.4323390136408599E-2</v>
+      </c>
+      <c r="AU7">
+        <v>0.80095751929530301</v>
+      </c>
+      <c r="AV7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:48">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1714,8 +2242,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8">
+        <v>429.416666666666</v>
+      </c>
+      <c r="U8">
+        <v>282.22566571608701</v>
+      </c>
+      <c r="V8">
+        <v>-0.37865004206595698</v>
+      </c>
+      <c r="W8">
+        <v>6.8062058944294401E-2</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>†</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8">
+        <v>429.416666666666</v>
+      </c>
+      <c r="AC8">
+        <v>282.22566571608701</v>
+      </c>
+      <c r="AD8">
+        <v>-0.365789591623643</v>
+      </c>
+      <c r="AE8">
+        <v>7.8775244666371202E-2</v>
+      </c>
+      <c r="AF8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>†</v>
+      </c>
+      <c r="AH8">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ8">
+        <v>429.416666666666</v>
+      </c>
+      <c r="AK8">
+        <v>282.22566571608701</v>
+      </c>
+      <c r="AL8">
+        <v>-0.52380259623416903</v>
+      </c>
+      <c r="AM8">
+        <v>8.6124179065830107E-3</v>
+      </c>
+      <c r="AN8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>**</v>
+      </c>
+      <c r="AP8">
+        <v>5</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR8">
+        <v>429.416666666666</v>
+      </c>
+      <c r="AS8">
+        <v>282.22566571608701</v>
+      </c>
+      <c r="AT8">
+        <v>-0.21230599542129899</v>
+      </c>
+      <c r="AU8">
+        <v>0.31926298281813797</v>
+      </c>
+      <c r="AV8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:48">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1738,8 +2354,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9">
+        <v>243.166666666666</v>
+      </c>
+      <c r="U9">
+        <v>215.408075263878</v>
+      </c>
+      <c r="V9">
+        <v>-0.28918628508147298</v>
+      </c>
+      <c r="W9">
+        <v>0.170504943130735</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB9">
+        <v>243.166666666666</v>
+      </c>
+      <c r="AC9">
+        <v>215.408075263878</v>
+      </c>
+      <c r="AD9">
+        <v>-8.4777882290108394E-2</v>
+      </c>
+      <c r="AE9">
+        <v>0.69368153288559298</v>
+      </c>
+      <c r="AF9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH9">
+        <v>6</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ9">
+        <v>243.166666666666</v>
+      </c>
+      <c r="AK9">
+        <v>215.408075263878</v>
+      </c>
+      <c r="AL9">
+        <v>-0.22192576685130999</v>
+      </c>
+      <c r="AM9">
+        <v>0.29730092853467599</v>
+      </c>
+      <c r="AN9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP9">
+        <v>6</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR9">
+        <v>243.166666666666</v>
+      </c>
+      <c r="AS9">
+        <v>215.408075263878</v>
+      </c>
+      <c r="AT9">
+        <v>-0.120442714531386</v>
+      </c>
+      <c r="AU9">
+        <v>0.57507370567721705</v>
+      </c>
+      <c r="AV9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:48">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1762,8 +2466,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10">
+        <v>2.2847499999999998</v>
+      </c>
+      <c r="U10">
+        <v>1.2140422236616499</v>
+      </c>
+      <c r="V10">
+        <v>2.3798316798738499E-2</v>
+      </c>
+      <c r="W10">
+        <v>0.912108927502157</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z10">
+        <v>7</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB10">
+        <v>2.2847499999999998</v>
+      </c>
+      <c r="AC10">
+        <v>1.2140422236616499</v>
+      </c>
+      <c r="AD10">
+        <v>-0.15550082409515101</v>
+      </c>
+      <c r="AE10">
+        <v>0.46810882882042198</v>
+      </c>
+      <c r="AF10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH10">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ10">
+        <v>2.2847499999999998</v>
+      </c>
+      <c r="AK10">
+        <v>1.2140422236616499</v>
+      </c>
+      <c r="AL10">
+        <v>-0.13655713661900101</v>
+      </c>
+      <c r="AM10">
+        <v>0.52460111175016699</v>
+      </c>
+      <c r="AN10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP10">
+        <v>7</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR10">
+        <v>2.2847499999999998</v>
+      </c>
+      <c r="AS10">
+        <v>1.2140422236616499</v>
+      </c>
+      <c r="AT10">
+        <v>-3.26141049534691E-2</v>
+      </c>
+      <c r="AU10">
+        <v>0.87974995280716894</v>
+      </c>
+      <c r="AV10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:48">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1786,8 +2578,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11">
+        <v>16.588604332359601</v>
+      </c>
+      <c r="U11">
+        <v>3.4059951299322901</v>
+      </c>
+      <c r="V11">
+        <v>2.0221211459677601E-2</v>
+      </c>
+      <c r="W11">
+        <v>0.925280593456698</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z11">
+        <v>8</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11">
+        <v>16.588604332359601</v>
+      </c>
+      <c r="AC11">
+        <v>3.4059951299322901</v>
+      </c>
+      <c r="AD11">
+        <v>5.3850451526876203E-2</v>
+      </c>
+      <c r="AE11">
+        <v>0.80265693323829601</v>
+      </c>
+      <c r="AF11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH11">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ11">
+        <v>16.588604332359601</v>
+      </c>
+      <c r="AK11">
+        <v>3.4059951299322901</v>
+      </c>
+      <c r="AL11">
+        <v>5.9359835932627197E-2</v>
+      </c>
+      <c r="AM11">
+        <v>0.78291576404072305</v>
+      </c>
+      <c r="AN11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP11">
+        <v>8</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR11">
+        <v>16.588604332359601</v>
+      </c>
+      <c r="AS11">
+        <v>3.4059951299322901</v>
+      </c>
+      <c r="AT11">
+        <v>7.1584109986727706E-2</v>
+      </c>
+      <c r="AU11">
+        <v>0.73959116871826702</v>
+      </c>
+      <c r="AV11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:48">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1810,8 +2690,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R12">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12">
+        <v>29.319821006159099</v>
+      </c>
+      <c r="U12">
+        <v>6.4945834148960397</v>
+      </c>
+      <c r="V12">
+        <v>2.7578918403455301E-2</v>
+      </c>
+      <c r="W12">
+        <v>0.89821238196474196</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z12">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB12">
+        <v>29.319821006159099</v>
+      </c>
+      <c r="AC12">
+        <v>6.4945834148960397</v>
+      </c>
+      <c r="AD12">
+        <v>0.11495722479971</v>
+      </c>
+      <c r="AE12">
+        <v>0.59272759588623603</v>
+      </c>
+      <c r="AF12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH12">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ12">
+        <v>29.319821006159099</v>
+      </c>
+      <c r="AK12">
+        <v>6.4945834148960397</v>
+      </c>
+      <c r="AL12">
+        <v>2.8745865827553899E-2</v>
+      </c>
+      <c r="AM12">
+        <v>0.89392864405610295</v>
+      </c>
+      <c r="AN12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP12">
+        <v>9</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR12">
+        <v>29.319821006159099</v>
+      </c>
+      <c r="AS12">
+        <v>6.4945834148960397</v>
+      </c>
+      <c r="AT12">
+        <v>0.108543575878128</v>
+      </c>
+      <c r="AU12">
+        <v>0.613655928138097</v>
+      </c>
+      <c r="AV12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:48">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1834,8 +2802,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13">
+        <v>0.49811794067583698</v>
+      </c>
+      <c r="U13">
+        <v>0.11754794061964501</v>
+      </c>
+      <c r="V13">
+        <v>7.7895743657115907E-2</v>
+      </c>
+      <c r="W13">
+        <v>0.71751016877103202</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13">
+        <v>0.49811794067583698</v>
+      </c>
+      <c r="AC13">
+        <v>0.11754794061964501</v>
+      </c>
+      <c r="AD13">
+        <v>0.15860488587969099</v>
+      </c>
+      <c r="AE13">
+        <v>0.45916173965523699</v>
+      </c>
+      <c r="AF13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH13">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ13">
+        <v>0.49811794067583698</v>
+      </c>
+      <c r="AK13">
+        <v>0.11754794061964501</v>
+      </c>
+      <c r="AL13">
+        <v>2.57443192184072E-2</v>
+      </c>
+      <c r="AM13">
+        <v>0.90495253380773</v>
+      </c>
+      <c r="AN13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP13">
+        <v>10</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR13">
+        <v>0.49811794067583698</v>
+      </c>
+      <c r="AS13">
+        <v>0.11754794061964501</v>
+      </c>
+      <c r="AT13">
+        <v>0.191669149372794</v>
+      </c>
+      <c r="AU13">
+        <v>0.36960375861800698</v>
+      </c>
+      <c r="AV13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:48">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1865,8 +2921,96 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
+      <c r="R14">
+        <v>11</v>
+      </c>
+      <c r="S14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14">
+        <v>8.4569661356429293E-2</v>
+      </c>
+      <c r="U14">
+        <v>7.4178586132635504E-2</v>
+      </c>
+      <c r="V14">
+        <v>-7.8553677637743997E-4</v>
+      </c>
+      <c r="W14">
+        <v>0.99709341142957197</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z14">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB14">
+        <v>8.4569661356429293E-2</v>
+      </c>
+      <c r="AC14">
+        <v>7.4178586132635504E-2</v>
+      </c>
+      <c r="AD14">
+        <v>0.14449719240554099</v>
+      </c>
+      <c r="AE14">
+        <v>0.50053507722246104</v>
+      </c>
+      <c r="AF14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH14">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ14">
+        <v>8.4569661356429293E-2</v>
+      </c>
+      <c r="AK14">
+        <v>7.4178586132635504E-2</v>
+      </c>
+      <c r="AL14">
+        <v>5.7264060442586098E-2</v>
+      </c>
+      <c r="AM14">
+        <v>0.79041071484054304</v>
+      </c>
+      <c r="AN14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP14">
+        <v>11</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR14">
+        <v>8.4569661356429293E-2</v>
+      </c>
+      <c r="AS14">
+        <v>7.4178586132635504E-2</v>
+      </c>
+      <c r="AT14">
+        <v>8.9723934614032594E-2</v>
+      </c>
+      <c r="AU14">
+        <v>0.67672719495268296</v>
+      </c>
+      <c r="AV14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:48">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1892,8 +3036,96 @@
       <c r="I15" t="s">
         <v>62</v>
       </c>
+      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15">
+        <v>0.168720766708333</v>
+      </c>
+      <c r="U15">
+        <v>0.124067333021638</v>
+      </c>
+      <c r="V15">
+        <v>0.39232243106522502</v>
+      </c>
+      <c r="W15">
+        <v>5.7932961278462397E-2</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>†</v>
+      </c>
+      <c r="Z15">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB15">
+        <v>0.168720766708333</v>
+      </c>
+      <c r="AC15">
+        <v>0.124067333021638</v>
+      </c>
+      <c r="AD15">
+        <v>0.3227534060583</v>
+      </c>
+      <c r="AE15">
+        <v>0.12398569105283599</v>
+      </c>
+      <c r="AF15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH15">
+        <v>12</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ15">
+        <v>0.168720766708333</v>
+      </c>
+      <c r="AK15">
+        <v>0.124067333021638</v>
+      </c>
+      <c r="AL15">
+        <v>0.31109686759890898</v>
+      </c>
+      <c r="AM15">
+        <v>0.13895275569663401</v>
+      </c>
+      <c r="AN15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP15">
+        <v>12</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR15">
+        <v>0.168720766708333</v>
+      </c>
+      <c r="AS15">
+        <v>0.124067333021638</v>
+      </c>
+      <c r="AT15">
+        <v>0.27841208743929202</v>
+      </c>
+      <c r="AU15">
+        <v>0.18772157842540099</v>
+      </c>
+      <c r="AV15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:48">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1919,8 +3151,96 @@
       <c r="I16" t="s">
         <v>61</v>
       </c>
+      <c r="R16">
+        <v>13</v>
+      </c>
+      <c r="S16" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16">
+        <v>0.128250193791666</v>
+      </c>
+      <c r="U16">
+        <v>0.15127611528346099</v>
+      </c>
+      <c r="V16">
+        <v>0.19564708538269199</v>
+      </c>
+      <c r="W16">
+        <v>0.35956070713260502</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z16">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB16">
+        <v>0.128250193791666</v>
+      </c>
+      <c r="AC16">
+        <v>0.15127611528346099</v>
+      </c>
+      <c r="AD16">
+        <v>-7.9424692341480904E-2</v>
+      </c>
+      <c r="AE16">
+        <v>0.712193312236587</v>
+      </c>
+      <c r="AF16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH16">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ16">
+        <v>0.128250193791666</v>
+      </c>
+      <c r="AK16">
+        <v>0.15127611528346099</v>
+      </c>
+      <c r="AL16">
+        <v>2.8700016876672702E-2</v>
+      </c>
+      <c r="AM16">
+        <v>0.89409689708616402</v>
+      </c>
+      <c r="AN16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP16">
+        <v>13</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR16">
+        <v>0.128250193791666</v>
+      </c>
+      <c r="AS16">
+        <v>0.15127611528346099</v>
+      </c>
+      <c r="AT16">
+        <v>7.0692290943387304E-2</v>
+      </c>
+      <c r="AU16">
+        <v>0.74272777866811701</v>
+      </c>
+      <c r="AV16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:48">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1943,8 +3263,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R17">
+        <v>14</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17">
+        <v>0.13165466575000001</v>
+      </c>
+      <c r="U17">
+        <v>0.131323513349763</v>
+      </c>
+      <c r="V17">
+        <v>0.322706831672188</v>
+      </c>
+      <c r="W17">
+        <v>0.124043062410122</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z17">
+        <v>14</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17">
+        <v>0.13165466575000001</v>
+      </c>
+      <c r="AC17">
+        <v>0.131323513349763</v>
+      </c>
+      <c r="AD17">
+        <v>0.123352309715818</v>
+      </c>
+      <c r="AE17">
+        <v>0.56580472105164703</v>
+      </c>
+      <c r="AF17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH17">
+        <v>14</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ17">
+        <v>0.13165466575000001</v>
+      </c>
+      <c r="AK17">
+        <v>0.131323513349763</v>
+      </c>
+      <c r="AL17">
+        <v>0.28315160344040102</v>
+      </c>
+      <c r="AM17">
+        <v>0.18000695484446999</v>
+      </c>
+      <c r="AN17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP17">
+        <v>14</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR17">
+        <v>0.13165466575000001</v>
+      </c>
+      <c r="AS17">
+        <v>0.131323513349763</v>
+      </c>
+      <c r="AT17">
+        <v>0.133005686688522</v>
+      </c>
+      <c r="AU17">
+        <v>0.53554070242639495</v>
+      </c>
+      <c r="AV17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1">
+    <row r="18" spans="1:48" ht="21" customHeight="1">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1967,8 +3375,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R18">
+        <v>15</v>
+      </c>
+      <c r="S18" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18">
+        <v>0.14287520879166599</v>
+      </c>
+      <c r="U18">
+        <v>0.119290426599199</v>
+      </c>
+      <c r="V18">
+        <v>0.33713273630491303</v>
+      </c>
+      <c r="W18">
+        <v>0.107178127342381</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z18">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB18">
+        <v>0.14287520879166599</v>
+      </c>
+      <c r="AC18">
+        <v>0.119290426599199</v>
+      </c>
+      <c r="AD18">
+        <v>0.123583971711911</v>
+      </c>
+      <c r="AE18">
+        <v>0.56506960249690896</v>
+      </c>
+      <c r="AF18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH18">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ18">
+        <v>0.14287520879166599</v>
+      </c>
+      <c r="AK18">
+        <v>0.119290426599199</v>
+      </c>
+      <c r="AL18">
+        <v>0.22388789939144199</v>
+      </c>
+      <c r="AM18">
+        <v>0.292939680320292</v>
+      </c>
+      <c r="AN18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP18">
+        <v>15</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR18">
+        <v>0.14287520879166599</v>
+      </c>
+      <c r="AS18">
+        <v>0.119290426599199</v>
+      </c>
+      <c r="AT18">
+        <v>0.17521013230738899</v>
+      </c>
+      <c r="AU18">
+        <v>0.412847973262569</v>
+      </c>
+      <c r="AV18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:48">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1991,8 +3487,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R19">
+        <v>16</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19">
+        <v>0.43624916666666602</v>
+      </c>
+      <c r="U19">
+        <v>0.1195400844179</v>
+      </c>
+      <c r="V19">
+        <v>-0.160560008137106</v>
+      </c>
+      <c r="W19">
+        <v>0.45357242483043098</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z19">
+        <v>16</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19">
+        <v>0.43624916666666602</v>
+      </c>
+      <c r="AC19">
+        <v>0.1195400844179</v>
+      </c>
+      <c r="AD19">
+        <v>-0.17927023932161801</v>
+      </c>
+      <c r="AE19">
+        <v>0.40193019298640498</v>
+      </c>
+      <c r="AF19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH19">
+        <v>16</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ19">
+        <v>0.43624916666666602</v>
+      </c>
+      <c r="AK19">
+        <v>0.1195400844179</v>
+      </c>
+      <c r="AL19">
+        <v>-0.15259233518736201</v>
+      </c>
+      <c r="AM19">
+        <v>0.47657294214231799</v>
+      </c>
+      <c r="AN19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP19">
+        <v>16</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR19">
+        <v>0.43624916666666602</v>
+      </c>
+      <c r="AS19">
+        <v>0.1195400844179</v>
+      </c>
+      <c r="AT19">
+        <v>7.3646130332265497E-2</v>
+      </c>
+      <c r="AU19">
+        <v>0.732354332650347</v>
+      </c>
+      <c r="AV19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:48">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2015,8 +3599,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R20">
+        <v>17</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20">
+        <v>0.486451666666666</v>
+      </c>
+      <c r="U20">
+        <v>0.115757302061492</v>
+      </c>
+      <c r="V20">
+        <v>-9.4859019267189204E-2</v>
+      </c>
+      <c r="W20">
+        <v>0.65928476507928502</v>
+      </c>
+      <c r="X20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z20">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB20">
+        <v>0.486451666666666</v>
+      </c>
+      <c r="AC20">
+        <v>0.115757302061492</v>
+      </c>
+      <c r="AD20">
+        <v>2.3179494069960699E-2</v>
+      </c>
+      <c r="AE20">
+        <v>0.914386054557769</v>
+      </c>
+      <c r="AF20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH20">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ20">
+        <v>0.486451666666666</v>
+      </c>
+      <c r="AK20">
+        <v>0.115757302061492</v>
+      </c>
+      <c r="AL20">
+        <v>-4.9353891823482501E-2</v>
+      </c>
+      <c r="AM20">
+        <v>0.81885680451911602</v>
+      </c>
+      <c r="AN20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP20">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR20">
+        <v>0.486451666666666</v>
+      </c>
+      <c r="AS20">
+        <v>0.115757302061492</v>
+      </c>
+      <c r="AT20">
+        <v>9.1661356824959003E-2</v>
+      </c>
+      <c r="AU20">
+        <v>0.67012676957554296</v>
+      </c>
+      <c r="AV20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:48">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2039,8 +3711,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R21">
+        <v>18</v>
+      </c>
+      <c r="S21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21">
+        <v>0.56556625000000005</v>
+      </c>
+      <c r="U21">
+        <v>0.100887123427311</v>
+      </c>
+      <c r="V21">
+        <v>-0.12633196954963399</v>
+      </c>
+      <c r="W21">
+        <v>0.55638231009679895</v>
+      </c>
+      <c r="X21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z21">
+        <v>18</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB21">
+        <v>0.56556625000000005</v>
+      </c>
+      <c r="AC21">
+        <v>0.100887123427311</v>
+      </c>
+      <c r="AD21">
+        <v>6.6653795892271097E-3</v>
+      </c>
+      <c r="AE21">
+        <v>0.97534082698709001</v>
+      </c>
+      <c r="AF21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH21">
+        <v>18</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ21">
+        <v>0.56556625000000005</v>
+      </c>
+      <c r="AK21">
+        <v>0.100887123427311</v>
+      </c>
+      <c r="AL21">
+        <v>-0.17246654066439401</v>
+      </c>
+      <c r="AM21">
+        <v>0.420317093418275</v>
+      </c>
+      <c r="AN21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP21">
+        <v>18</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR21">
+        <v>0.56556625000000005</v>
+      </c>
+      <c r="AS21">
+        <v>0.100887123427311</v>
+      </c>
+      <c r="AT21">
+        <v>0.200041465376321</v>
+      </c>
+      <c r="AU21">
+        <v>0.34865373784741599</v>
+      </c>
+      <c r="AV21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:48">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2063,8 +3823,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R22">
+        <v>19</v>
+      </c>
+      <c r="S22" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22">
+        <v>0.49608902775000002</v>
+      </c>
+      <c r="U22">
+        <v>0.104770712894577</v>
+      </c>
+      <c r="V22">
+        <v>-0.136549769179548</v>
+      </c>
+      <c r="W22">
+        <v>0.52462369506745499</v>
+      </c>
+      <c r="X22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z22">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB22">
+        <v>0.49608902775000002</v>
+      </c>
+      <c r="AC22">
+        <v>0.104770712894577</v>
+      </c>
+      <c r="AD22">
+        <v>-5.7504404801458499E-2</v>
+      </c>
+      <c r="AE22">
+        <v>0.78955026185251698</v>
+      </c>
+      <c r="AF22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH22">
+        <v>19</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ22">
+        <v>0.49608902775000002</v>
+      </c>
+      <c r="AK22">
+        <v>0.104770712894577</v>
+      </c>
+      <c r="AL22">
+        <v>-0.13156866067502199</v>
+      </c>
+      <c r="AM22">
+        <v>0.53999734797369803</v>
+      </c>
+      <c r="AN22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP22">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR22">
+        <v>0.49608902775000002</v>
+      </c>
+      <c r="AS22">
+        <v>0.104770712894577</v>
+      </c>
+      <c r="AT22">
+        <v>0.12597586721739401</v>
+      </c>
+      <c r="AU22">
+        <v>0.55750463777135795</v>
+      </c>
+      <c r="AV22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:48">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2087,8 +3935,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23">
+        <v>208.997832803325</v>
+      </c>
+      <c r="U23">
+        <v>398.01015908326502</v>
+      </c>
+      <c r="V23">
+        <v>0.21311136449098</v>
+      </c>
+      <c r="W23">
+        <v>0.31738741688150302</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z23">
+        <v>20</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23">
+        <v>208.997832803325</v>
+      </c>
+      <c r="AC23">
+        <v>398.01015908326502</v>
+      </c>
+      <c r="AD23">
+        <v>-0.101858117680001</v>
+      </c>
+      <c r="AE23">
+        <v>0.63578706799711304</v>
+      </c>
+      <c r="AF23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH23">
+        <v>20</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ23">
+        <v>208.997832803325</v>
+      </c>
+      <c r="AK23">
+        <v>398.01015908326502</v>
+      </c>
+      <c r="AL23">
+        <v>0.37269135725987801</v>
+      </c>
+      <c r="AM23">
+        <v>7.2877983565149698E-2</v>
+      </c>
+      <c r="AN23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>†</v>
+      </c>
+      <c r="AP23">
+        <v>20</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR23">
+        <v>208.997832803325</v>
+      </c>
+      <c r="AS23">
+        <v>398.01015908326502</v>
+      </c>
+      <c r="AT23">
+        <v>-4.9811174630103199E-2</v>
+      </c>
+      <c r="AU23">
+        <v>0.81720593491378801</v>
+      </c>
+      <c r="AV23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:48">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2111,8 +4047,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R24">
+        <v>21</v>
+      </c>
+      <c r="S24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24">
+        <v>285.41229542133499</v>
+      </c>
+      <c r="U24">
+        <v>276.499840903338</v>
+      </c>
+      <c r="V24">
+        <v>0.21217111959993801</v>
+      </c>
+      <c r="W24">
+        <v>0.31957774327716398</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z24">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB24">
+        <v>285.41229542133499</v>
+      </c>
+      <c r="AC24">
+        <v>276.499840903338</v>
+      </c>
+      <c r="AD24">
+        <v>0.14554158593962599</v>
+      </c>
+      <c r="AE24">
+        <v>0.49741063190861301</v>
+      </c>
+      <c r="AF24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH24">
+        <v>21</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ24">
+        <v>285.41229542133499</v>
+      </c>
+      <c r="AK24">
+        <v>276.499840903338</v>
+      </c>
+      <c r="AL24">
+        <v>0.25361150429325602</v>
+      </c>
+      <c r="AM24">
+        <v>0.231780802131823</v>
+      </c>
+      <c r="AN24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP24">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR24">
+        <v>285.41229542133499</v>
+      </c>
+      <c r="AS24">
+        <v>276.499840903338</v>
+      </c>
+      <c r="AT24">
+        <v>2.6686667710265798E-2</v>
+      </c>
+      <c r="AU24">
+        <v>0.90148960605628503</v>
+      </c>
+      <c r="AV24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:48">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2135,8 +4159,96 @@
         <f t="shared" si="0"/>
         <v>†</v>
       </c>
+      <c r="R25">
+        <v>22</v>
+      </c>
+      <c r="S25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25">
+        <v>3.2164385963369298E-2</v>
+      </c>
+      <c r="U25">
+        <v>2.68741175552233</v>
+      </c>
+      <c r="V25">
+        <v>-0.17413131141902599</v>
+      </c>
+      <c r="W25">
+        <v>0.41577617538786399</v>
+      </c>
+      <c r="X25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z25">
+        <v>22</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB25">
+        <v>3.2164385963369298E-2</v>
+      </c>
+      <c r="AC25">
+        <v>2.68741175552233</v>
+      </c>
+      <c r="AD25">
+        <v>-0.33975583712792801</v>
+      </c>
+      <c r="AE25">
+        <v>0.104302690196539</v>
+      </c>
+      <c r="AF25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH25">
+        <v>22</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ25">
+        <v>3.2164385963369298E-2</v>
+      </c>
+      <c r="AK25">
+        <v>2.68741175552233</v>
+      </c>
+      <c r="AL25">
+        <v>-8.2162658132651195E-2</v>
+      </c>
+      <c r="AM25">
+        <v>0.70270472560475306</v>
+      </c>
+      <c r="AN25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP25">
+        <v>22</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR25">
+        <v>3.2164385963369298E-2</v>
+      </c>
+      <c r="AS25">
+        <v>2.68741175552233</v>
+      </c>
+      <c r="AT25">
+        <v>-0.245116199704174</v>
+      </c>
+      <c r="AU25">
+        <v>0.24832273998245699</v>
+      </c>
+      <c r="AV25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:48">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2159,8 +4271,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R26">
+        <v>23</v>
+      </c>
+      <c r="S26" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26">
+        <v>26.625</v>
+      </c>
+      <c r="U26">
+        <v>8.4054173999074298</v>
+      </c>
+      <c r="V26">
+        <v>0.32706830334548098</v>
+      </c>
+      <c r="W26">
+        <v>0.118753607169528</v>
+      </c>
+      <c r="X26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z26">
+        <v>23</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB26">
+        <v>26.625</v>
+      </c>
+      <c r="AC26">
+        <v>8.4054173999074298</v>
+      </c>
+      <c r="AD26">
+        <v>0.24037015024944999</v>
+      </c>
+      <c r="AE26">
+        <v>0.25789021026484399</v>
+      </c>
+      <c r="AF26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH26">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ26">
+        <v>26.625</v>
+      </c>
+      <c r="AK26">
+        <v>8.4054173999074298</v>
+      </c>
+      <c r="AL26">
+        <v>0.38865889910483298</v>
+      </c>
+      <c r="AM26">
+        <v>6.0524842749221403E-2</v>
+      </c>
+      <c r="AN26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>†</v>
+      </c>
+      <c r="AP26">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR26">
+        <v>26.625</v>
+      </c>
+      <c r="AS26">
+        <v>8.4054173999074298</v>
+      </c>
+      <c r="AT26">
+        <v>0.33757242296547102</v>
+      </c>
+      <c r="AU26">
+        <v>0.10669211685590101</v>
+      </c>
+      <c r="AV26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:48">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2183,8 +4383,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R27">
+        <v>24</v>
+      </c>
+      <c r="S27" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27">
+        <v>20.731096035282299</v>
+      </c>
+      <c r="U27">
+        <v>4.5923688094916804</v>
+      </c>
+      <c r="V27">
+        <v>2.7423201172024399E-2</v>
+      </c>
+      <c r="W27">
+        <v>0.89878421435262901</v>
+      </c>
+      <c r="X27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z27">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB27">
+        <v>20.731096035282299</v>
+      </c>
+      <c r="AC27">
+        <v>4.5923688094916804</v>
+      </c>
+      <c r="AD27">
+        <v>0.114859352259283</v>
+      </c>
+      <c r="AE27">
+        <v>0.59304466429290603</v>
+      </c>
+      <c r="AF27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH27">
+        <v>24</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ27">
+        <v>20.731096035282299</v>
+      </c>
+      <c r="AK27">
+        <v>4.5923688094916804</v>
+      </c>
+      <c r="AL27">
+        <v>2.8560428061797899E-2</v>
+      </c>
+      <c r="AM27">
+        <v>0.89460917687168595</v>
+      </c>
+      <c r="AN27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP27">
+        <v>24</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR27">
+        <v>20.731096035282299</v>
+      </c>
+      <c r="AS27">
+        <v>4.5923688094916804</v>
+      </c>
+      <c r="AT27">
+        <v>0.108379155998961</v>
+      </c>
+      <c r="AU27">
+        <v>0.61419640802325304</v>
+      </c>
+      <c r="AV27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:48">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2207,8 +4495,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R28">
+        <v>25</v>
+      </c>
+      <c r="S28" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28">
+        <v>53.9455036380199</v>
+      </c>
+      <c r="U28">
+        <v>13.191945248283</v>
+      </c>
+      <c r="V28">
+        <v>0.197463437590812</v>
+      </c>
+      <c r="W28">
+        <v>0.35502854567021003</v>
+      </c>
+      <c r="X28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z28">
+        <v>25</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB28">
+        <v>53.9455036380199</v>
+      </c>
+      <c r="AC28">
+        <v>13.191945248283</v>
+      </c>
+      <c r="AD28">
+        <v>0.19873853595004201</v>
+      </c>
+      <c r="AE28">
+        <v>0.351867050617861</v>
+      </c>
+      <c r="AF28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH28">
+        <v>25</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ28">
+        <v>53.9455036380199</v>
+      </c>
+      <c r="AK28">
+        <v>13.191945248283</v>
+      </c>
+      <c r="AL28">
+        <v>0.19051822572850499</v>
+      </c>
+      <c r="AM28">
+        <v>0.37253941866330798</v>
+      </c>
+      <c r="AN28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP28">
+        <v>25</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR28">
+        <v>53.9455036380199</v>
+      </c>
+      <c r="AS28">
+        <v>13.191945248283</v>
+      </c>
+      <c r="AT28">
+        <v>0.33597330965197397</v>
+      </c>
+      <c r="AU28">
+        <v>0.108467522533442</v>
+      </c>
+      <c r="AV28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:48">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2231,8 +4607,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R29">
+        <v>26</v>
+      </c>
+      <c r="S29" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29">
+        <v>3631.51390890005</v>
+      </c>
+      <c r="U29">
+        <v>1507.8507610945801</v>
+      </c>
+      <c r="V29">
+        <v>0.12664070080496401</v>
+      </c>
+      <c r="W29">
+        <v>0.55541011188455003</v>
+      </c>
+      <c r="X29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z29">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB29">
+        <v>3631.51390890005</v>
+      </c>
+      <c r="AC29">
+        <v>1507.8507610945801</v>
+      </c>
+      <c r="AD29">
+        <v>0.180590244598026</v>
+      </c>
+      <c r="AE29">
+        <v>0.39841568422703399</v>
+      </c>
+      <c r="AF29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH29">
+        <v>26</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ29">
+        <v>3631.51390890005</v>
+      </c>
+      <c r="AK29">
+        <v>1507.8507610945801</v>
+      </c>
+      <c r="AL29">
+        <v>0.119976467505338</v>
+      </c>
+      <c r="AM29">
+        <v>0.57656519121845295</v>
+      </c>
+      <c r="AN29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP29">
+        <v>26</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR29">
+        <v>3631.51390890005</v>
+      </c>
+      <c r="AS29">
+        <v>1507.8507610945801</v>
+      </c>
+      <c r="AT29">
+        <v>0.24392410046239399</v>
+      </c>
+      <c r="AU29">
+        <v>0.25070384529504403</v>
+      </c>
+      <c r="AV29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:48">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2255,8 +4719,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R30">
+        <v>27</v>
+      </c>
+      <c r="S30" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30">
+        <v>0.39216934518736002</v>
+      </c>
+      <c r="U30">
+        <v>7.1664658714225907E-2</v>
+      </c>
+      <c r="V30">
+        <v>-0.151935537780791</v>
+      </c>
+      <c r="W30">
+        <v>0.47849504026498002</v>
+      </c>
+      <c r="X30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z30">
+        <v>27</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB30">
+        <v>0.39216934518736002</v>
+      </c>
+      <c r="AC30">
+        <v>7.1664658714225907E-2</v>
+      </c>
+      <c r="AD30">
+        <v>-0.11793728577652</v>
+      </c>
+      <c r="AE30">
+        <v>0.58310820576882405</v>
+      </c>
+      <c r="AF30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH30">
+        <v>27</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ30">
+        <v>0.39216934518736002</v>
+      </c>
+      <c r="AK30">
+        <v>7.1664658714225907E-2</v>
+      </c>
+      <c r="AL30">
+        <v>-0.16052128950421801</v>
+      </c>
+      <c r="AM30">
+        <v>0.45368276616320402</v>
+      </c>
+      <c r="AN30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP30">
+        <v>27</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR30">
+        <v>0.39216934518736002</v>
+      </c>
+      <c r="AS30">
+        <v>7.1664658714225907E-2</v>
+      </c>
+      <c r="AT30">
+        <v>-0.28102665857314602</v>
+      </c>
+      <c r="AU30">
+        <v>0.18343821822945999</v>
+      </c>
+      <c r="AV30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:48">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2279,8 +4831,96 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R31">
+        <v>28</v>
+      </c>
+      <c r="S31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31">
+        <v>0.18258487803443199</v>
+      </c>
+      <c r="U31">
+        <v>8.61980827520549E-2</v>
+      </c>
+      <c r="V31">
+        <v>-0.39141732678916402</v>
+      </c>
+      <c r="W31">
+        <v>5.8565182189156503E-2</v>
+      </c>
+      <c r="X31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>†</v>
+      </c>
+      <c r="Z31">
+        <v>28</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB31">
+        <v>0.18258487803443199</v>
+      </c>
+      <c r="AC31">
+        <v>8.61980827520549E-2</v>
+      </c>
+      <c r="AD31">
+        <v>-0.26048184000878799</v>
+      </c>
+      <c r="AE31">
+        <v>0.21894774159510899</v>
+      </c>
+      <c r="AF31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH31">
+        <v>28</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ31">
+        <v>0.18258487803443199</v>
+      </c>
+      <c r="AK31">
+        <v>8.61980827520549E-2</v>
+      </c>
+      <c r="AL31">
+        <v>-0.249484716503139</v>
+      </c>
+      <c r="AM31">
+        <v>0.23972309450674201</v>
+      </c>
+      <c r="AN31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP31">
+        <v>28</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR31">
+        <v>0.18258487803443199</v>
+      </c>
+      <c r="AS31">
+        <v>8.61980827520549E-2</v>
+      </c>
+      <c r="AT31">
+        <v>-8.2363281092904403E-2</v>
+      </c>
+      <c r="AU31">
+        <v>0.70201112557825296</v>
+      </c>
+      <c r="AV31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:48">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2303,8 +4943,186 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="R32">
+        <v>29</v>
+      </c>
+      <c r="S32" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32">
+        <v>65.809441377813798</v>
+      </c>
+      <c r="U32">
+        <v>14.1115984045695</v>
+      </c>
+      <c r="V32">
+        <v>0.128651579241783</v>
+      </c>
+      <c r="W32">
+        <v>0.54909678970626097</v>
+      </c>
+      <c r="X32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z32">
+        <v>29</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB32">
+        <v>65.809441377813798</v>
+      </c>
+      <c r="AC32">
+        <v>14.1115984045695</v>
+      </c>
+      <c r="AD32">
+        <v>-7.9729430625424501E-3</v>
+      </c>
+      <c r="AE32">
+        <v>0.97050525964143697</v>
+      </c>
+      <c r="AF32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH32">
+        <v>29</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ32">
+        <v>65.809441377813798</v>
+      </c>
+      <c r="AK32">
+        <v>14.1115984045695</v>
+      </c>
+      <c r="AL32">
+        <v>-3.2453365706569398E-2</v>
+      </c>
+      <c r="AM32">
+        <v>0.88033844493075497</v>
+      </c>
+      <c r="AN32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP32">
+        <v>29</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR32">
+        <v>65.809441377813798</v>
+      </c>
+      <c r="AS32">
+        <v>14.1115984045695</v>
+      </c>
+      <c r="AT32">
+        <v>8.3477874225941703E-2</v>
+      </c>
+      <c r="AU32">
+        <v>0.69816193468740795</v>
+      </c>
+      <c r="AV32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="33" spans="2:48">
+      <c r="R33">
+        <v>30</v>
+      </c>
+      <c r="S33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33">
+        <v>34.190558622186103</v>
+      </c>
+      <c r="U33">
+        <v>14.1115984045695</v>
+      </c>
+      <c r="V33">
+        <v>-0.128651579241783</v>
+      </c>
+      <c r="W33">
+        <v>0.54909678970625997</v>
+      </c>
+      <c r="X33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z33">
+        <v>30</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB33">
+        <v>34.190558622186103</v>
+      </c>
+      <c r="AC33">
+        <v>14.1115984045695</v>
+      </c>
+      <c r="AD33">
+        <v>7.9729430625424293E-3</v>
+      </c>
+      <c r="AE33">
+        <v>0.97050525964143697</v>
+      </c>
+      <c r="AF33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH33">
+        <v>30</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ33">
+        <v>34.190558622186103</v>
+      </c>
+      <c r="AK33">
+        <v>14.1115984045695</v>
+      </c>
+      <c r="AL33">
+        <v>3.2453365706569301E-2</v>
+      </c>
+      <c r="AM33">
+        <v>0.88033844493075497</v>
+      </c>
+      <c r="AN33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP33">
+        <v>30</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR33">
+        <v>34.190558622186103</v>
+      </c>
+      <c r="AS33">
+        <v>14.1115984045695</v>
+      </c>
+      <c r="AT33">
+        <v>-8.3477874225941703E-2</v>
+      </c>
+      <c r="AU33">
+        <v>0.69816193468740695</v>
+      </c>
+      <c r="AV33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:48">
       <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
@@ -2313,7 +5131,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:48">
       <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
         <v>41</v>
@@ -2327,8 +5145,36 @@
       <c r="F36" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="S36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="AA36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AI36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AQ36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7"/>
+      <c r="AU36" s="7"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:48">
       <c r="B37" t="s">
         <v>44</v>
       </c>
@@ -2352,8 +5198,60 @@
         <f>IF(F37="","",IF(F37&lt;0.01,"**",IF(F37&lt;0.05,"*",IF(F37&lt;0.1,"†",""))))</f>
         <v/>
       </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU37" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:48">
       <c r="B38" t="s">
         <v>45</v>
       </c>
@@ -2374,11 +5272,103 @@
         <v>0.72599999999999998</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" ref="G38:G49" si="1">IF(F38="","",IF(F38&lt;0.01,"**",IF(F38&lt;0.05,"*",IF(F38&lt;0.1,"†",""))))</f>
+        <f t="shared" ref="G38:G49" si="5">IF(F38="","",IF(F38&lt;0.01,"**",IF(F38&lt;0.05,"*",IF(F38&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="S38" t="s">
+        <v>44</v>
+      </c>
+      <c r="T38" s="4">
+        <f>ROUND(T3,2)</f>
+        <v>76.989999999999995</v>
+      </c>
+      <c r="U38" s="4">
+        <f>ROUND(U3,2)</f>
+        <v>7.69</v>
+      </c>
+      <c r="V38" s="5">
+        <f>ROUND(V3,3)</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="W38" s="5">
+        <f>ROUND(W3,3)</f>
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="X38" s="1" t="str">
+        <f>IF(W38="","",IF(W38&lt;0.01,"**",IF(W38&lt;0.05,"*",IF(W38&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AA38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB38" s="4">
+        <f>ROUND(AB3,2)</f>
+        <v>76.989999999999995</v>
+      </c>
+      <c r="AC38" s="4">
+        <f>ROUND(AC3,2)</f>
+        <v>7.69</v>
+      </c>
+      <c r="AD38" s="5">
+        <f>ROUND(AD3,3)</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AE38" s="5">
+        <f>ROUND(AE3,3)</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="AF38" s="1" t="str">
+        <f>IF(AE38="","",IF(AE38&lt;0.01,"**",IF(AE38&lt;0.05,"*",IF(AE38&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AI38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ38" s="4">
+        <f>ROUND(AJ3,2)</f>
+        <v>76.989999999999995</v>
+      </c>
+      <c r="AK38" s="4">
+        <f>ROUND(AK3,2)</f>
+        <v>7.69</v>
+      </c>
+      <c r="AL38" s="5">
+        <f>ROUND(AL3,3)</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AM38" s="5">
+        <f>ROUND(AM3,3)</f>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="AN38" s="1" t="str">
+        <f>IF(AM38="","",IF(AM38&lt;0.01,"**",IF(AM38&lt;0.05,"*",IF(AM38&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AQ38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR38" s="4">
+        <f>ROUND(AR3,2)</f>
+        <v>76.989999999999995</v>
+      </c>
+      <c r="AS38" s="4">
+        <f>ROUND(AS3,2)</f>
+        <v>7.69</v>
+      </c>
+      <c r="AT38" s="5">
+        <f>ROUND(AT3,3)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AU38" s="5">
+        <f>ROUND(AU3,3)</f>
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AV38" s="1" t="str">
+        <f>IF(AU38="","",IF(AU38&lt;0.01,"**",IF(AU38&lt;0.05,"*",IF(AU38&lt;0.1,"†",""))))</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:48">
       <c r="B39" t="s">
         <v>4</v>
       </c>
@@ -2399,261 +5389,1367 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>*</v>
       </c>
+      <c r="S39" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="4">
+        <f>ROUND(T4,2)</f>
+        <v>786.84</v>
+      </c>
+      <c r="U39" s="4">
+        <f>ROUND(U4,2)</f>
+        <v>75.98</v>
+      </c>
+      <c r="V39" s="5">
+        <f>ROUND(V4,3)</f>
+        <v>-0.05</v>
+      </c>
+      <c r="W39" s="5">
+        <f>ROUND(W4,3)</f>
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="X39" s="1" t="str">
+        <f t="shared" ref="X39:X50" si="6">IF(W39="","",IF(W39&lt;0.01,"**",IF(W39&lt;0.05,"*",IF(W39&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AA39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39" s="4">
+        <f>ROUND(AB4,2)</f>
+        <v>786.84</v>
+      </c>
+      <c r="AC39" s="4">
+        <f>ROUND(AC4,2)</f>
+        <v>75.98</v>
+      </c>
+      <c r="AD39" s="5">
+        <f>ROUND(AD4,3)</f>
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="AE39" s="5">
+        <f>ROUND(AE4,3)</f>
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AF39" s="1" t="str">
+        <f t="shared" ref="AF39:AF50" si="7">IF(AE39="","",IF(AE39&lt;0.01,"**",IF(AE39&lt;0.05,"*",IF(AE39&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AI39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ39" s="4">
+        <f>ROUND(AJ4,2)</f>
+        <v>786.84</v>
+      </c>
+      <c r="AK39" s="4">
+        <f>ROUND(AK4,2)</f>
+        <v>75.98</v>
+      </c>
+      <c r="AL39" s="5">
+        <f>ROUND(AL4,3)</f>
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="AM39" s="5">
+        <f>ROUND(AM4,3)</f>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="AN39" s="1" t="str">
+        <f t="shared" ref="AN39:AN50" si="8">IF(AM39="","",IF(AM39&lt;0.01,"**",IF(AM39&lt;0.05,"*",IF(AM39&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
+      <c r="AQ39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR39" s="4">
+        <f>ROUND(AR4,2)</f>
+        <v>786.84</v>
+      </c>
+      <c r="AS39" s="4">
+        <f>ROUND(AS4,2)</f>
+        <v>75.98</v>
+      </c>
+      <c r="AT39" s="5">
+        <f>ROUND(AT4,3)</f>
+        <v>-0.03</v>
+      </c>
+      <c r="AU39" s="5">
+        <f>ROUND(AU4,3)</f>
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AV39" s="1" t="str">
+        <f t="shared" ref="AV39:AV50" si="9">IF(AU39="","",IF(AU39&lt;0.01,"**",IF(AU39&lt;0.05,"*",IF(AU39&lt;0.1,"†",""))))</f>
+        <v/>
+      </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:48">
       <c r="B40" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" ref="C40:D40" si="2">ROUND(C8,2)</f>
+        <f t="shared" ref="C40:D40" si="10">ROUND(C8,2)</f>
         <v>243.17</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>215.41</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" ref="E40:F40" si="3">ROUND(E8,3)</f>
+        <f t="shared" ref="E40:F40" si="11">ROUND(E8,3)</f>
         <v>-0.20599999999999999</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.33500000000000002</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S40" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40" s="4">
+        <f>ROUND(T8,2)</f>
+        <v>429.42</v>
+      </c>
+      <c r="U40" s="4">
+        <f>ROUND(U8,2)</f>
+        <v>282.23</v>
+      </c>
+      <c r="V40" s="5">
+        <f>ROUND(V8,3)</f>
+        <v>-0.379</v>
+      </c>
+      <c r="W40" s="5">
+        <f>ROUND(W8,3)</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>†</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB40" s="4">
+        <f>ROUND(AB8,2)</f>
+        <v>429.42</v>
+      </c>
+      <c r="AC40" s="4">
+        <f>ROUND(AC8,2)</f>
+        <v>282.23</v>
+      </c>
+      <c r="AD40" s="5">
+        <f>ROUND(AD8,3)</f>
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="AE40" s="5">
+        <f>ROUND(AE8,3)</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AF40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>†</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ40" s="4">
+        <f>ROUND(AJ8,2)</f>
+        <v>429.42</v>
+      </c>
+      <c r="AK40" s="4">
+        <f>ROUND(AK8,2)</f>
+        <v>282.23</v>
+      </c>
+      <c r="AL40" s="5">
+        <f>ROUND(AL8,3)</f>
+        <v>-0.52400000000000002</v>
+      </c>
+      <c r="AM40" s="5">
+        <f>ROUND(AM8,3)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AN40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>**</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR40" s="4">
+        <f>ROUND(AR8,2)</f>
+        <v>429.42</v>
+      </c>
+      <c r="AS40" s="4">
+        <f>ROUND(AS8,2)</f>
+        <v>282.23</v>
+      </c>
+      <c r="AT40" s="5">
+        <f>ROUND(AT8,3)</f>
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="AU40" s="5">
+        <f>ROUND(AU8,3)</f>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="AV40" s="1" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:48">
       <c r="B41" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" ref="C41:D41" si="4">ROUND(C9,2)</f>
+        <f t="shared" ref="C41:D41" si="12">ROUND(C9,2)</f>
         <v>2.2799999999999998</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1.21</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" ref="E41:F41" si="5">ROUND(E9,3)</f>
+        <f t="shared" ref="E41:F41" si="13">ROUND(E9,3)</f>
         <v>-9.2999999999999999E-2</v>
       </c>
       <c r="F41" s="5">
+        <f t="shared" si="13"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G41" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="G41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S41" t="s">
+        <v>46</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" ref="T41:U41" si="14">ROUND(T9,2)</f>
+        <v>243.17</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="14"/>
+        <v>215.41</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" ref="V41:W41" si="15">ROUND(V9,3)</f>
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" si="15"/>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="X41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB41" s="4">
+        <f t="shared" ref="AB41:AC41" si="16">ROUND(AB9,2)</f>
+        <v>243.17</v>
+      </c>
+      <c r="AC41" s="4">
+        <f t="shared" si="16"/>
+        <v>215.41</v>
+      </c>
+      <c r="AD41" s="5">
+        <f t="shared" ref="AD41:AE41" si="17">ROUND(AD9,3)</f>
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="AE41" s="5">
+        <f t="shared" si="17"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AF41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ41" s="4">
+        <f t="shared" ref="AJ41:AK41" si="18">ROUND(AJ9,2)</f>
+        <v>243.17</v>
+      </c>
+      <c r="AK41" s="4">
+        <f t="shared" si="18"/>
+        <v>215.41</v>
+      </c>
+      <c r="AL41" s="5">
+        <f t="shared" ref="AL41:AM41" si="19">ROUND(AL9,3)</f>
+        <v>-0.222</v>
+      </c>
+      <c r="AM41" s="5">
+        <f t="shared" si="19"/>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AN41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR41" s="4">
+        <f t="shared" ref="AR41:AS41" si="20">ROUND(AR9,2)</f>
+        <v>243.17</v>
+      </c>
+      <c r="AS41" s="4">
+        <f t="shared" si="20"/>
+        <v>215.41</v>
+      </c>
+      <c r="AT41" s="5">
+        <f t="shared" ref="AT41:AU41" si="21">ROUND(AT9,3)</f>
+        <v>-0.12</v>
+      </c>
+      <c r="AU41" s="5">
+        <f t="shared" si="21"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AV41" s="1" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:48">
       <c r="B42" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" ref="C42:D42" si="6">ROUND(C10,2)</f>
+        <f t="shared" ref="C42:D42" si="22">ROUND(C10,2)</f>
         <v>16.59</v>
       </c>
       <c r="D42" s="4">
+        <f t="shared" si="22"/>
+        <v>3.41</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" ref="E42:F42" si="23">ROUND(E10,3)</f>
+        <v>0.06</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="23"/>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" ref="T42:U42" si="24">ROUND(T10,2)</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="24"/>
+        <v>1.21</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" ref="V42:W42" si="25">ROUND(V10,3)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="25"/>
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="X42" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>3.41</v>
-      </c>
-      <c r="E42" s="5">
-        <f t="shared" ref="E42:F42" si="7">ROUND(E10,3)</f>
-        <v>0.06</v>
-      </c>
-      <c r="F42" s="5">
+        <v/>
+      </c>
+      <c r="AA42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB42" s="4">
+        <f t="shared" ref="AB42:AC42" si="26">ROUND(AB10,2)</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AC42" s="4">
+        <f t="shared" si="26"/>
+        <v>1.21</v>
+      </c>
+      <c r="AD42" s="5">
+        <f t="shared" ref="AD42:AE42" si="27">ROUND(AD10,3)</f>
+        <v>-0.156</v>
+      </c>
+      <c r="AE42" s="5">
+        <f t="shared" si="27"/>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AF42" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="G42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ42" s="4">
+        <f t="shared" ref="AJ42:AK42" si="28">ROUND(AJ10,2)</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AK42" s="4">
+        <f t="shared" si="28"/>
+        <v>1.21</v>
+      </c>
+      <c r="AL42" s="5">
+        <f t="shared" ref="AL42:AM42" si="29">ROUND(AL10,3)</f>
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="AM42" s="5">
+        <f t="shared" si="29"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AN42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR42" s="4">
+        <f t="shared" ref="AR42:AS42" si="30">ROUND(AR10,2)</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AS42" s="4">
+        <f t="shared" si="30"/>
+        <v>1.21</v>
+      </c>
+      <c r="AT42" s="5">
+        <f t="shared" ref="AT42:AU42" si="31">ROUND(AT10,3)</f>
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="AU42" s="5">
+        <f t="shared" si="31"/>
+        <v>0.88</v>
+      </c>
+      <c r="AV42" s="1" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:48">
       <c r="B43" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" ref="C43:D43" si="8">ROUND(C11,2)</f>
+        <f t="shared" ref="C43:D43" si="32">ROUND(C11,2)</f>
         <v>29.32</v>
       </c>
       <c r="D43" s="4">
+        <f t="shared" si="32"/>
+        <v>6.49</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" ref="E43:F43" si="33">ROUND(E11,3)</f>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="33"/>
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S43" t="s">
+        <v>65</v>
+      </c>
+      <c r="T43" s="4">
+        <f t="shared" ref="T43:U43" si="34">ROUND(T11,2)</f>
+        <v>16.59</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="34"/>
+        <v>3.41</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" ref="V43:W43" si="35">ROUND(V11,3)</f>
+        <v>0.02</v>
+      </c>
+      <c r="W43" s="5">
+        <f t="shared" si="35"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="X43" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB43" s="4">
+        <f t="shared" ref="AB43:AC43" si="36">ROUND(AB11,2)</f>
+        <v>16.59</v>
+      </c>
+      <c r="AC43" s="4">
+        <f t="shared" si="36"/>
+        <v>3.41</v>
+      </c>
+      <c r="AD43" s="5">
+        <f t="shared" ref="AD43:AE43" si="37">ROUND(AD11,3)</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AE43" s="5">
+        <f t="shared" si="37"/>
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AF43" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ43" s="4">
+        <f t="shared" ref="AJ43:AK43" si="38">ROUND(AJ11,2)</f>
+        <v>16.59</v>
+      </c>
+      <c r="AK43" s="4">
+        <f t="shared" si="38"/>
+        <v>3.41</v>
+      </c>
+      <c r="AL43" s="5">
+        <f t="shared" ref="AL43:AM43" si="39">ROUND(AL11,3)</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AM43" s="5">
+        <f t="shared" si="39"/>
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="AN43" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>6.49</v>
-      </c>
-      <c r="E43" s="5">
-        <f t="shared" ref="E43:F43" si="9">ROUND(E11,3)</f>
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F43" s="5">
+        <v/>
+      </c>
+      <c r="AQ43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR43" s="4">
+        <f t="shared" ref="AR43:AS43" si="40">ROUND(AR11,2)</f>
+        <v>16.59</v>
+      </c>
+      <c r="AS43" s="4">
+        <f t="shared" si="40"/>
+        <v>3.41</v>
+      </c>
+      <c r="AT43" s="5">
+        <f t="shared" ref="AT43:AU43" si="41">ROUND(AT11,3)</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AU43" s="5">
+        <f t="shared" si="41"/>
+        <v>0.74</v>
+      </c>
+      <c r="AV43" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="G43" s="1" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:48">
       <c r="B44" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" ref="C44:D44" si="10">ROUND(C12,2)</f>
+        <f t="shared" ref="C44:D44" si="42">ROUND(C12,2)</f>
         <v>0.5</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="42"/>
         <v>0.12</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" ref="E44:F44" si="11">ROUND(E12,3)</f>
+        <f t="shared" ref="E44:F44" si="43">ROUND(E12,3)</f>
         <v>0.13200000000000001</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="43"/>
         <v>0.54</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S44" t="s">
+        <v>68</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" ref="T44:U44" si="44">ROUND(T12,2)</f>
+        <v>29.32</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="44"/>
+        <v>6.49</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" ref="V44:W44" si="45">ROUND(V12,3)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="W44" s="5">
+        <f t="shared" si="45"/>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="X44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB44" s="4">
+        <f t="shared" ref="AB44:AC44" si="46">ROUND(AB12,2)</f>
+        <v>29.32</v>
+      </c>
+      <c r="AC44" s="4">
+        <f t="shared" si="46"/>
+        <v>6.49</v>
+      </c>
+      <c r="AD44" s="5">
+        <f t="shared" ref="AD44:AE44" si="47">ROUND(AD12,3)</f>
+        <v>0.115</v>
+      </c>
+      <c r="AE44" s="5">
+        <f t="shared" si="47"/>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="AF44" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ44" s="4">
+        <f t="shared" ref="AJ44:AK44" si="48">ROUND(AJ12,2)</f>
+        <v>29.32</v>
+      </c>
+      <c r="AK44" s="4">
+        <f t="shared" si="48"/>
+        <v>6.49</v>
+      </c>
+      <c r="AL44" s="5">
+        <f t="shared" ref="AL44:AM44" si="49">ROUND(AL12,3)</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AM44" s="5">
+        <f t="shared" si="49"/>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="AN44" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR44" s="4">
+        <f t="shared" ref="AR44:AS44" si="50">ROUND(AR12,2)</f>
+        <v>29.32</v>
+      </c>
+      <c r="AS44" s="4">
+        <f t="shared" si="50"/>
+        <v>6.49</v>
+      </c>
+      <c r="AT44" s="5">
+        <f t="shared" ref="AT44:AU44" si="51">ROUND(AT12,3)</f>
+        <v>0.109</v>
+      </c>
+      <c r="AU44" s="5">
+        <f t="shared" si="51"/>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AV44" s="1" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:48">
       <c r="B45" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" ref="C45:D45" si="12">ROUND(C13,2)</f>
+        <f t="shared" ref="C45:D45" si="52">ROUND(C13,2)</f>
         <v>0.08</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="52"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" ref="E45:F45" si="13">ROUND(E13,3)</f>
+        <f t="shared" ref="E45:F45" si="53">ROUND(E13,3)</f>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="53"/>
         <v>0.68400000000000005</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S45" t="s">
+        <v>66</v>
+      </c>
+      <c r="T45" s="4">
+        <f t="shared" ref="T45:U45" si="54">ROUND(T13,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="54"/>
+        <v>0.12</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" ref="V45:W45" si="55">ROUND(V13,3)</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="W45" s="5">
+        <f t="shared" si="55"/>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="X45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB45" s="4">
+        <f t="shared" ref="AB45:AC45" si="56">ROUND(AB13,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AC45" s="4">
+        <f t="shared" si="56"/>
+        <v>0.12</v>
+      </c>
+      <c r="AD45" s="5">
+        <f t="shared" ref="AD45:AE45" si="57">ROUND(AD13,3)</f>
+        <v>0.159</v>
+      </c>
+      <c r="AE45" s="5">
+        <f t="shared" si="57"/>
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AF45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ45" s="4">
+        <f t="shared" ref="AJ45:AK45" si="58">ROUND(AJ13,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AK45" s="4">
+        <f t="shared" si="58"/>
+        <v>0.12</v>
+      </c>
+      <c r="AL45" s="5">
+        <f t="shared" ref="AL45:AM45" si="59">ROUND(AL13,3)</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AM45" s="5">
+        <f t="shared" si="59"/>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AN45" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR45" s="4">
+        <f t="shared" ref="AR45:AS45" si="60">ROUND(AR13,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AS45" s="4">
+        <f t="shared" si="60"/>
+        <v>0.12</v>
+      </c>
+      <c r="AT45" s="5">
+        <f t="shared" ref="AT45:AU45" si="61">ROUND(AT13,3)</f>
+        <v>0.192</v>
+      </c>
+      <c r="AU45" s="5">
+        <f t="shared" si="61"/>
+        <v>0.37</v>
+      </c>
+      <c r="AV45" s="1" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:48">
       <c r="B46" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" ref="C46:D46" si="14">ROUND(C14,2)</f>
+        <f t="shared" ref="C46:D46" si="62">ROUND(C14,2)</f>
         <v>0.17</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="62"/>
         <v>0.12</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" ref="E46:F46" si="15">ROUND(E14,3)</f>
+        <f t="shared" ref="E46:F46" si="63">ROUND(E14,3)</f>
         <v>0.38</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="63"/>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>†</v>
       </c>
+      <c r="S46" t="s">
+        <v>67</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" ref="T46:U46" si="64">ROUND(T14,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="64"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" ref="V46:W46" si="65">ROUND(V14,3)</f>
+        <v>-1E-3</v>
+      </c>
+      <c r="W46" s="5">
+        <f t="shared" si="65"/>
+        <v>0.997</v>
+      </c>
+      <c r="X46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB46" s="4">
+        <f t="shared" ref="AB46:AC46" si="66">ROUND(AB14,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="AC46" s="4">
+        <f t="shared" si="66"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD46" s="5">
+        <f t="shared" ref="AD46:AE46" si="67">ROUND(AD14,3)</f>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AE46" s="5">
+        <f t="shared" si="67"/>
+        <v>0.501</v>
+      </c>
+      <c r="AF46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ46" s="4">
+        <f t="shared" ref="AJ46:AK46" si="68">ROUND(AJ14,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="AK46" s="4">
+        <f t="shared" si="68"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL46" s="5">
+        <f t="shared" ref="AL46:AM46" si="69">ROUND(AL14,3)</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AM46" s="5">
+        <f t="shared" si="69"/>
+        <v>0.79</v>
+      </c>
+      <c r="AN46" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR46" s="4">
+        <f t="shared" ref="AR46:AS46" si="70">ROUND(AR14,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="AS46" s="4">
+        <f t="shared" si="70"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT46" s="5">
+        <f t="shared" ref="AT46:AU46" si="71">ROUND(AT14,3)</f>
+        <v>0.09</v>
+      </c>
+      <c r="AU46" s="5">
+        <f t="shared" si="71"/>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="AV46" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:48">
       <c r="B47" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" ref="C47:D47" si="16">ROUND(C15,2)</f>
+        <f t="shared" ref="C47:D47" si="72">ROUND(C15,2)</f>
         <v>0.13</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="72"/>
         <v>0.15</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" ref="E47:F47" si="17">ROUND(E15,3)</f>
+        <f t="shared" ref="E47:F47" si="73">ROUND(E15,3)</f>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="73"/>
         <v>0.79600000000000004</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S47" t="s">
+        <v>48</v>
+      </c>
+      <c r="T47" s="4">
+        <f t="shared" ref="T47:U47" si="74">ROUND(T15,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="74"/>
+        <v>0.12</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" ref="V47:W47" si="75">ROUND(V15,3)</f>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="W47" s="5">
+        <f t="shared" si="75"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="X47" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>†</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB47" s="4">
+        <f t="shared" ref="AB47:AC47" si="76">ROUND(AB15,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AC47" s="4">
+        <f t="shared" si="76"/>
+        <v>0.12</v>
+      </c>
+      <c r="AD47" s="5">
+        <f t="shared" ref="AD47:AE47" si="77">ROUND(AD15,3)</f>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AE47" s="5">
+        <f t="shared" si="77"/>
+        <v>0.124</v>
+      </c>
+      <c r="AF47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ47" s="4">
+        <f t="shared" ref="AJ47:AK47" si="78">ROUND(AJ15,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AK47" s="4">
+        <f t="shared" si="78"/>
+        <v>0.12</v>
+      </c>
+      <c r="AL47" s="5">
+        <f t="shared" ref="AL47:AM47" si="79">ROUND(AL15,3)</f>
+        <v>0.311</v>
+      </c>
+      <c r="AM47" s="5">
+        <f t="shared" si="79"/>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AN47" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR47" s="4">
+        <f t="shared" ref="AR47:AS47" si="80">ROUND(AR15,2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AS47" s="4">
+        <f t="shared" si="80"/>
+        <v>0.12</v>
+      </c>
+      <c r="AT47" s="5">
+        <f t="shared" ref="AT47:AU47" si="81">ROUND(AT15,3)</f>
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AU47" s="5">
+        <f t="shared" si="81"/>
+        <v>0.188</v>
+      </c>
+      <c r="AV47" s="1" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:48">
       <c r="B48" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" ref="C48:D48" si="18">ROUND(C16,2)</f>
+        <f t="shared" ref="C48:D48" si="82">ROUND(C16,2)</f>
         <v>0.13</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="82"/>
         <v>0.13</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" ref="E48:F48" si="19">ROUND(E16,3)</f>
+        <f t="shared" ref="E48:F48" si="83">ROUND(E16,3)</f>
         <v>0.249</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="83"/>
         <v>0.24</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S48" t="s">
+        <v>49</v>
+      </c>
+      <c r="T48" s="4">
+        <f t="shared" ref="T48:U48" si="84">ROUND(T16,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="84"/>
+        <v>0.15</v>
+      </c>
+      <c r="V48" s="5">
+        <f t="shared" ref="V48:W48" si="85">ROUND(V16,3)</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="W48" s="5">
+        <f t="shared" si="85"/>
+        <v>0.36</v>
+      </c>
+      <c r="X48" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB48" s="4">
+        <f t="shared" ref="AB48:AC48" si="86">ROUND(AB16,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AC48" s="4">
+        <f t="shared" si="86"/>
+        <v>0.15</v>
+      </c>
+      <c r="AD48" s="5">
+        <f t="shared" ref="AD48:AE48" si="87">ROUND(AD16,3)</f>
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="AE48" s="5">
+        <f t="shared" si="87"/>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AF48" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ48" s="4">
+        <f t="shared" ref="AJ48:AK48" si="88">ROUND(AJ16,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AK48" s="4">
+        <f t="shared" si="88"/>
+        <v>0.15</v>
+      </c>
+      <c r="AL48" s="5">
+        <f t="shared" ref="AL48:AM48" si="89">ROUND(AL16,3)</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AM48" s="5">
+        <f t="shared" si="89"/>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="AN48" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR48" s="4">
+        <f t="shared" ref="AR48:AS48" si="90">ROUND(AR16,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AS48" s="4">
+        <f t="shared" si="90"/>
+        <v>0.15</v>
+      </c>
+      <c r="AT48" s="5">
+        <f t="shared" ref="AT48:AU48" si="91">ROUND(AT16,3)</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AU48" s="5">
+        <f t="shared" si="91"/>
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AV48" s="1" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:48">
       <c r="B49" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" ref="C49:D49" si="20">ROUND(C17,2)</f>
+        <f t="shared" ref="C49:D49" si="92">ROUND(C17,2)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="92"/>
         <v>0.12</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" ref="E49:F49" si="21">ROUND(E17,3)</f>
+        <f t="shared" ref="E49:F49" si="93">ROUND(E17,3)</f>
         <v>0.247</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="93"/>
         <v>0.245</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S49" t="s">
+        <v>50</v>
+      </c>
+      <c r="T49" s="4">
+        <f t="shared" ref="T49:U49" si="94">ROUND(T17,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="94"/>
+        <v>0.13</v>
+      </c>
+      <c r="V49" s="5">
+        <f t="shared" ref="V49:W49" si="95">ROUND(V17,3)</f>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="W49" s="5">
+        <f t="shared" si="95"/>
+        <v>0.124</v>
+      </c>
+      <c r="X49" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB49" s="4">
+        <f t="shared" ref="AB49:AC49" si="96">ROUND(AB17,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AC49" s="4">
+        <f t="shared" si="96"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD49" s="5">
+        <f t="shared" ref="AD49:AE49" si="97">ROUND(AD17,3)</f>
+        <v>0.123</v>
+      </c>
+      <c r="AE49" s="5">
+        <f t="shared" si="97"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AF49" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ49" s="4">
+        <f t="shared" ref="AJ49:AK49" si="98">ROUND(AJ17,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AK49" s="4">
+        <f t="shared" si="98"/>
+        <v>0.13</v>
+      </c>
+      <c r="AL49" s="5">
+        <f t="shared" ref="AL49:AM49" si="99">ROUND(AL17,3)</f>
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AM49" s="5">
+        <f t="shared" si="99"/>
+        <v>0.18</v>
+      </c>
+      <c r="AN49" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR49" s="4">
+        <f t="shared" ref="AR49:AS49" si="100">ROUND(AR17,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AS49" s="4">
+        <f t="shared" si="100"/>
+        <v>0.13</v>
+      </c>
+      <c r="AT49" s="5">
+        <f t="shared" ref="AT49:AU49" si="101">ROUND(AT17,3)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AU49" s="5">
+        <f t="shared" si="101"/>
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="AV49" s="1" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="50" spans="2:48">
+      <c r="S50" t="s">
+        <v>64</v>
+      </c>
+      <c r="T50" s="4">
+        <f t="shared" ref="T50:U50" si="102">ROUND(T18,2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="102"/>
+        <v>0.12</v>
+      </c>
+      <c r="V50" s="5">
+        <f t="shared" ref="V50:W50" si="103">ROUND(V18,3)</f>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="W50" s="5">
+        <f t="shared" si="103"/>
+        <v>0.107</v>
+      </c>
+      <c r="X50" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB50" s="4">
+        <f t="shared" ref="AB50:AC50" si="104">ROUND(AB18,2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC50" s="4">
+        <f t="shared" si="104"/>
+        <v>0.12</v>
+      </c>
+      <c r="AD50" s="5">
+        <f t="shared" ref="AD50:AE50" si="105">ROUND(AD18,3)</f>
+        <v>0.124</v>
+      </c>
+      <c r="AE50" s="5">
+        <f t="shared" si="105"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AF50" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ50" s="4">
+        <f t="shared" ref="AJ50:AK50" si="106">ROUND(AJ18,2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AK50" s="4">
+        <f t="shared" si="106"/>
+        <v>0.12</v>
+      </c>
+      <c r="AL50" s="5">
+        <f t="shared" ref="AL50:AM50" si="107">ROUND(AL18,3)</f>
+        <v>0.224</v>
+      </c>
+      <c r="AM50" s="5">
+        <f t="shared" si="107"/>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="AN50" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR50" s="4">
+        <f t="shared" ref="AR50:AS50" si="108">ROUND(AR18,2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AS50" s="4">
+        <f t="shared" si="108"/>
+        <v>0.12</v>
+      </c>
+      <c r="AT50" s="5">
+        <f t="shared" ref="AT50:AU50" si="109">ROUND(AT18,3)</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AU50" s="5">
+        <f t="shared" si="109"/>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="AV50" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:48">
       <c r="B51" s="7" t="s">
         <v>82</v>
       </c>
@@ -2662,7 +6758,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:48">
       <c r="B52" s="6" t="s">
         <v>83</v>
       </c>
@@ -2670,8 +6766,36 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
+      <c r="S52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="AA52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AI52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AQ52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="7"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:48">
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
         <v>6</v>
@@ -2685,8 +6809,36 @@
       <c r="F53" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="S53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="AA53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AI53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AQ53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:48">
       <c r="B54" s="12" t="s">
         <v>70</v>
       </c>
@@ -2695,272 +6847,1326 @@
         <v>76.989999999999995</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" ref="D54:E54" si="22">D37</f>
+        <f t="shared" ref="D54:E54" si="110">D37</f>
         <v>7.69</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="110"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="F54" s="12" t="str">
         <f>F37&amp;G37</f>
         <v>0.695</v>
       </c>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ54" s="13"/>
+      <c r="AR54" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU54" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:48">
       <c r="B55" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" ref="C55:E66" si="23">C38</f>
+        <f t="shared" ref="C55:E66" si="111">C38</f>
         <v>786.84</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>75.98</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="F55" s="12" t="str">
-        <f t="shared" ref="F55:F66" si="24">F38&amp;G38</f>
+        <f t="shared" ref="F55:F66" si="112">F38&amp;G38</f>
         <v>0.726</v>
       </c>
+      <c r="S55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T55" s="4">
+        <f>T38</f>
+        <v>76.989999999999995</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" ref="U55:V55" si="113">U38</f>
+        <v>7.69</v>
+      </c>
+      <c r="V55" s="5">
+        <f t="shared" si="113"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="W55" s="12" t="str">
+        <f>W38&amp;X38</f>
+        <v>0.821</v>
+      </c>
+      <c r="AA55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB55" s="4">
+        <f>AB38</f>
+        <v>76.989999999999995</v>
+      </c>
+      <c r="AC55" s="4">
+        <f t="shared" ref="AC55:AD55" si="114">AC38</f>
+        <v>7.69</v>
+      </c>
+      <c r="AD55" s="5">
+        <f t="shared" si="114"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AE55" s="12" t="str">
+        <f>AE38&amp;AF38</f>
+        <v>0.655</v>
+      </c>
+      <c r="AI55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ55" s="4">
+        <f>AJ38</f>
+        <v>76.989999999999995</v>
+      </c>
+      <c r="AK55" s="4">
+        <f t="shared" ref="AK55:AL55" si="115">AK38</f>
+        <v>7.69</v>
+      </c>
+      <c r="AL55" s="5">
+        <f t="shared" si="115"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AM55" s="12" t="str">
+        <f>AM38&amp;AN38</f>
+        <v>0.653</v>
+      </c>
+      <c r="AQ55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR55" s="4">
+        <f>AR38</f>
+        <v>76.989999999999995</v>
+      </c>
+      <c r="AS55" s="4">
+        <f t="shared" ref="AS55:AT55" si="116">AS38</f>
+        <v>7.69</v>
+      </c>
+      <c r="AT55" s="5">
+        <f t="shared" si="116"/>
+        <v>0.04</v>
+      </c>
+      <c r="AU55" s="12" t="str">
+        <f>AU38&amp;AV38</f>
+        <v>0.851</v>
+      </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:48">
       <c r="B56" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>429.42</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>282.23</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>-0.436</v>
       </c>
       <c r="F56" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.033*</v>
       </c>
+      <c r="S56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T56" s="4">
+        <f t="shared" ref="T56:V56" si="117">T39</f>
+        <v>786.84</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="117"/>
+        <v>75.98</v>
+      </c>
+      <c r="V56" s="5">
+        <f t="shared" si="117"/>
+        <v>-0.05</v>
+      </c>
+      <c r="W56" s="12" t="str">
+        <f t="shared" ref="W56:W67" si="118">W39&amp;X39</f>
+        <v>0.816</v>
+      </c>
+      <c r="AA56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB56" s="4">
+        <f t="shared" ref="AB56:AD56" si="119">AB39</f>
+        <v>786.84</v>
+      </c>
+      <c r="AC56" s="4">
+        <f t="shared" si="119"/>
+        <v>75.98</v>
+      </c>
+      <c r="AD56" s="5">
+        <f t="shared" si="119"/>
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="AE56" s="12" t="str">
+        <f t="shared" ref="AE56:AE67" si="120">AE39&amp;AF39</f>
+        <v>0.724</v>
+      </c>
+      <c r="AI56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ56" s="4">
+        <f t="shared" ref="AJ56:AL56" si="121">AJ39</f>
+        <v>786.84</v>
+      </c>
+      <c r="AK56" s="4">
+        <f t="shared" si="121"/>
+        <v>75.98</v>
+      </c>
+      <c r="AL56" s="5">
+        <f t="shared" si="121"/>
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="AM56" s="12" t="str">
+        <f t="shared" ref="AM56:AM67" si="122">AM39&amp;AN39</f>
+        <v>0.654</v>
+      </c>
+      <c r="AQ56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR56" s="4">
+        <f t="shared" ref="AR56:AT56" si="123">AR39</f>
+        <v>786.84</v>
+      </c>
+      <c r="AS56" s="4">
+        <f t="shared" si="123"/>
+        <v>75.98</v>
+      </c>
+      <c r="AT56" s="5">
+        <f t="shared" si="123"/>
+        <v>-0.03</v>
+      </c>
+      <c r="AU56" s="12" t="str">
+        <f t="shared" ref="AU56:AU67" si="124">AU39&amp;AV39</f>
+        <v>0.888</v>
+      </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:48">
       <c r="B57" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>243.17</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>215.41</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>-0.20599999999999999</v>
       </c>
       <c r="F57" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.335</v>
       </c>
+      <c r="S57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="T57" s="4">
+        <f t="shared" ref="T57:V57" si="125">T40</f>
+        <v>429.42</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="125"/>
+        <v>282.23</v>
+      </c>
+      <c r="V57" s="5">
+        <f t="shared" si="125"/>
+        <v>-0.379</v>
+      </c>
+      <c r="W57" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.068†</v>
+      </c>
+      <c r="AA57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB57" s="4">
+        <f t="shared" ref="AB57:AD57" si="126">AB40</f>
+        <v>429.42</v>
+      </c>
+      <c r="AC57" s="4">
+        <f t="shared" si="126"/>
+        <v>282.23</v>
+      </c>
+      <c r="AD57" s="5">
+        <f t="shared" si="126"/>
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="AE57" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.079†</v>
+      </c>
+      <c r="AI57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ57" s="4">
+        <f t="shared" ref="AJ57:AL57" si="127">AJ40</f>
+        <v>429.42</v>
+      </c>
+      <c r="AK57" s="4">
+        <f t="shared" si="127"/>
+        <v>282.23</v>
+      </c>
+      <c r="AL57" s="5">
+        <f t="shared" si="127"/>
+        <v>-0.52400000000000002</v>
+      </c>
+      <c r="AM57" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.009**</v>
+      </c>
+      <c r="AQ57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR57" s="4">
+        <f t="shared" ref="AR57:AT57" si="128">AR40</f>
+        <v>429.42</v>
+      </c>
+      <c r="AS57" s="4">
+        <f t="shared" si="128"/>
+        <v>282.23</v>
+      </c>
+      <c r="AT57" s="5">
+        <f t="shared" si="128"/>
+        <v>-0.21199999999999999</v>
+      </c>
+      <c r="AU57" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.319</v>
+      </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:48">
       <c r="B58" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>1.21</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>-9.2999999999999999E-2</v>
       </c>
       <c r="F58" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.665</v>
       </c>
+      <c r="S58" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" ref="T58:V58" si="129">T41</f>
+        <v>243.17</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="129"/>
+        <v>215.41</v>
+      </c>
+      <c r="V58" s="5">
+        <f t="shared" si="129"/>
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="W58" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.171</v>
+      </c>
+      <c r="AA58" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB58" s="4">
+        <f t="shared" ref="AB58:AD58" si="130">AB41</f>
+        <v>243.17</v>
+      </c>
+      <c r="AC58" s="4">
+        <f t="shared" si="130"/>
+        <v>215.41</v>
+      </c>
+      <c r="AD58" s="5">
+        <f t="shared" si="130"/>
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="AE58" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.694</v>
+      </c>
+      <c r="AI58" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ58" s="4">
+        <f t="shared" ref="AJ58:AL58" si="131">AJ41</f>
+        <v>243.17</v>
+      </c>
+      <c r="AK58" s="4">
+        <f t="shared" si="131"/>
+        <v>215.41</v>
+      </c>
+      <c r="AL58" s="5">
+        <f t="shared" si="131"/>
+        <v>-0.222</v>
+      </c>
+      <c r="AM58" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.297</v>
+      </c>
+      <c r="AQ58" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR58" s="4">
+        <f t="shared" ref="AR58:AT58" si="132">AR41</f>
+        <v>243.17</v>
+      </c>
+      <c r="AS58" s="4">
+        <f t="shared" si="132"/>
+        <v>215.41</v>
+      </c>
+      <c r="AT58" s="5">
+        <f t="shared" si="132"/>
+        <v>-0.12</v>
+      </c>
+      <c r="AU58" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.575</v>
+      </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:48">
       <c r="B59" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>16.59</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>3.41</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.06</v>
       </c>
       <c r="F59" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.781</v>
       </c>
+      <c r="S59" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" ref="T59:V59" si="133">T42</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="133"/>
+        <v>1.21</v>
+      </c>
+      <c r="V59" s="5">
+        <f t="shared" si="133"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="W59" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.912</v>
+      </c>
+      <c r="AA59" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB59" s="4">
+        <f t="shared" ref="AB59:AD59" si="134">AB42</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AC59" s="4">
+        <f t="shared" si="134"/>
+        <v>1.21</v>
+      </c>
+      <c r="AD59" s="5">
+        <f t="shared" si="134"/>
+        <v>-0.156</v>
+      </c>
+      <c r="AE59" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.468</v>
+      </c>
+      <c r="AI59" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ59" s="4">
+        <f t="shared" ref="AJ59:AL59" si="135">AJ42</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AK59" s="4">
+        <f t="shared" si="135"/>
+        <v>1.21</v>
+      </c>
+      <c r="AL59" s="5">
+        <f t="shared" si="135"/>
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="AM59" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.525</v>
+      </c>
+      <c r="AQ59" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR59" s="4">
+        <f t="shared" ref="AR59:AT59" si="136">AR42</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AS59" s="4">
+        <f t="shared" si="136"/>
+        <v>1.21</v>
+      </c>
+      <c r="AT59" s="5">
+        <f t="shared" si="136"/>
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="AU59" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.88</v>
+      </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:48">
       <c r="B60" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>29.32</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>6.49</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="F60" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.702</v>
       </c>
+      <c r="S60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T60" s="4">
+        <f t="shared" ref="T60:V60" si="137">T43</f>
+        <v>16.59</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" si="137"/>
+        <v>3.41</v>
+      </c>
+      <c r="V60" s="5">
+        <f t="shared" si="137"/>
+        <v>0.02</v>
+      </c>
+      <c r="W60" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.925</v>
+      </c>
+      <c r="AA60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB60" s="4">
+        <f t="shared" ref="AB60:AD60" si="138">AB43</f>
+        <v>16.59</v>
+      </c>
+      <c r="AC60" s="4">
+        <f t="shared" si="138"/>
+        <v>3.41</v>
+      </c>
+      <c r="AD60" s="5">
+        <f t="shared" si="138"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AE60" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.803</v>
+      </c>
+      <c r="AI60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ60" s="4">
+        <f t="shared" ref="AJ60:AL60" si="139">AJ43</f>
+        <v>16.59</v>
+      </c>
+      <c r="AK60" s="4">
+        <f t="shared" si="139"/>
+        <v>3.41</v>
+      </c>
+      <c r="AL60" s="5">
+        <f t="shared" si="139"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AM60" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.783</v>
+      </c>
+      <c r="AQ60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR60" s="4">
+        <f t="shared" ref="AR60:AT60" si="140">AR43</f>
+        <v>16.59</v>
+      </c>
+      <c r="AS60" s="4">
+        <f t="shared" si="140"/>
+        <v>3.41</v>
+      </c>
+      <c r="AT60" s="5">
+        <f t="shared" si="140"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AU60" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:48">
       <c r="B61" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.5</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.12</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.13200000000000001</v>
       </c>
       <c r="F61" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.54</v>
       </c>
+      <c r="S61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T61" s="4">
+        <f t="shared" ref="T61:V61" si="141">T44</f>
+        <v>29.32</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" si="141"/>
+        <v>6.49</v>
+      </c>
+      <c r="V61" s="5">
+        <f t="shared" si="141"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="W61" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.898</v>
+      </c>
+      <c r="AA61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB61" s="4">
+        <f t="shared" ref="AB61:AD61" si="142">AB44</f>
+        <v>29.32</v>
+      </c>
+      <c r="AC61" s="4">
+        <f t="shared" si="142"/>
+        <v>6.49</v>
+      </c>
+      <c r="AD61" s="5">
+        <f t="shared" si="142"/>
+        <v>0.115</v>
+      </c>
+      <c r="AE61" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.593</v>
+      </c>
+      <c r="AI61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ61" s="4">
+        <f t="shared" ref="AJ61:AL61" si="143">AJ44</f>
+        <v>29.32</v>
+      </c>
+      <c r="AK61" s="4">
+        <f t="shared" si="143"/>
+        <v>6.49</v>
+      </c>
+      <c r="AL61" s="5">
+        <f t="shared" si="143"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AM61" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.894</v>
+      </c>
+      <c r="AQ61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR61" s="4">
+        <f t="shared" ref="AR61:AT61" si="144">AR44</f>
+        <v>29.32</v>
+      </c>
+      <c r="AS61" s="4">
+        <f t="shared" si="144"/>
+        <v>6.49</v>
+      </c>
+      <c r="AT61" s="5">
+        <f t="shared" si="144"/>
+        <v>0.109</v>
+      </c>
+      <c r="AU61" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.614</v>
+      </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:48">
       <c r="B62" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.08</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F62" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.684</v>
       </c>
+      <c r="S62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="4">
+        <f t="shared" ref="T62:V62" si="145">T45</f>
+        <v>0.5</v>
+      </c>
+      <c r="U62" s="4">
+        <f t="shared" si="145"/>
+        <v>0.12</v>
+      </c>
+      <c r="V62" s="5">
+        <f t="shared" si="145"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="W62" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.718</v>
+      </c>
+      <c r="AA62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB62" s="4">
+        <f t="shared" ref="AB62:AD62" si="146">AB45</f>
+        <v>0.5</v>
+      </c>
+      <c r="AC62" s="4">
+        <f t="shared" si="146"/>
+        <v>0.12</v>
+      </c>
+      <c r="AD62" s="5">
+        <f t="shared" si="146"/>
+        <v>0.159</v>
+      </c>
+      <c r="AE62" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.459</v>
+      </c>
+      <c r="AI62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ62" s="4">
+        <f t="shared" ref="AJ62:AL62" si="147">AJ45</f>
+        <v>0.5</v>
+      </c>
+      <c r="AK62" s="4">
+        <f t="shared" si="147"/>
+        <v>0.12</v>
+      </c>
+      <c r="AL62" s="5">
+        <f t="shared" si="147"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AM62" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.905</v>
+      </c>
+      <c r="AQ62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR62" s="4">
+        <f t="shared" ref="AR62:AT62" si="148">AR45</f>
+        <v>0.5</v>
+      </c>
+      <c r="AS62" s="4">
+        <f t="shared" si="148"/>
+        <v>0.12</v>
+      </c>
+      <c r="AT62" s="5">
+        <f t="shared" si="148"/>
+        <v>0.192</v>
+      </c>
+      <c r="AU62" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:48">
       <c r="B63" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.17</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.12</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.38</v>
       </c>
       <c r="F63" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.067†</v>
       </c>
+      <c r="S63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T63" s="4">
+        <f t="shared" ref="T63:V63" si="149">T46</f>
+        <v>0.08</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="149"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V63" s="5">
+        <f t="shared" si="149"/>
+        <v>-1E-3</v>
+      </c>
+      <c r="W63" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.997</v>
+      </c>
+      <c r="AA63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB63" s="4">
+        <f t="shared" ref="AB63:AD63" si="150">AB46</f>
+        <v>0.08</v>
+      </c>
+      <c r="AC63" s="4">
+        <f t="shared" si="150"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD63" s="5">
+        <f t="shared" si="150"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AE63" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.501</v>
+      </c>
+      <c r="AI63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ63" s="4">
+        <f t="shared" ref="AJ63:AL63" si="151">AJ46</f>
+        <v>0.08</v>
+      </c>
+      <c r="AK63" s="4">
+        <f t="shared" si="151"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL63" s="5">
+        <f t="shared" si="151"/>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AM63" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.79</v>
+      </c>
+      <c r="AQ63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR63" s="4">
+        <f t="shared" ref="AR63:AT63" si="152">AR46</f>
+        <v>0.08</v>
+      </c>
+      <c r="AS63" s="4">
+        <f t="shared" si="152"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT63" s="5">
+        <f t="shared" si="152"/>
+        <v>0.09</v>
+      </c>
+      <c r="AU63" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.677</v>
+      </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:48">
       <c r="B64" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.13</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.15</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="F64" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.796</v>
       </c>
+      <c r="S64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T64" s="4">
+        <f t="shared" ref="T64:V64" si="153">T47</f>
+        <v>0.17</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" si="153"/>
+        <v>0.12</v>
+      </c>
+      <c r="V64" s="5">
+        <f t="shared" si="153"/>
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="W64" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.058†</v>
+      </c>
+      <c r="AA64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB64" s="4">
+        <f t="shared" ref="AB64:AD64" si="154">AB47</f>
+        <v>0.17</v>
+      </c>
+      <c r="AC64" s="4">
+        <f t="shared" si="154"/>
+        <v>0.12</v>
+      </c>
+      <c r="AD64" s="5">
+        <f t="shared" si="154"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AE64" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.124</v>
+      </c>
+      <c r="AI64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ64" s="4">
+        <f t="shared" ref="AJ64:AL64" si="155">AJ47</f>
+        <v>0.17</v>
+      </c>
+      <c r="AK64" s="4">
+        <f t="shared" si="155"/>
+        <v>0.12</v>
+      </c>
+      <c r="AL64" s="5">
+        <f t="shared" si="155"/>
+        <v>0.311</v>
+      </c>
+      <c r="AM64" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.139</v>
+      </c>
+      <c r="AQ64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR64" s="4">
+        <f t="shared" ref="AR64:AT64" si="156">AR47</f>
+        <v>0.17</v>
+      </c>
+      <c r="AS64" s="4">
+        <f t="shared" si="156"/>
+        <v>0.12</v>
+      </c>
+      <c r="AT64" s="5">
+        <f t="shared" si="156"/>
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AU64" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.188</v>
+      </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:47">
       <c r="B65" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.13</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.13</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.249</v>
       </c>
       <c r="F65" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.24</v>
       </c>
+      <c r="S65" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T65" s="4">
+        <f t="shared" ref="T65:V65" si="157">T48</f>
+        <v>0.13</v>
+      </c>
+      <c r="U65" s="4">
+        <f t="shared" si="157"/>
+        <v>0.15</v>
+      </c>
+      <c r="V65" s="5">
+        <f t="shared" si="157"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="W65" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.36</v>
+      </c>
+      <c r="AA65" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB65" s="4">
+        <f t="shared" ref="AB65:AD65" si="158">AB48</f>
+        <v>0.13</v>
+      </c>
+      <c r="AC65" s="4">
+        <f t="shared" si="158"/>
+        <v>0.15</v>
+      </c>
+      <c r="AD65" s="5">
+        <f t="shared" si="158"/>
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="AE65" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.712</v>
+      </c>
+      <c r="AI65" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ65" s="4">
+        <f t="shared" ref="AJ65:AL65" si="159">AJ48</f>
+        <v>0.13</v>
+      </c>
+      <c r="AK65" s="4">
+        <f t="shared" si="159"/>
+        <v>0.15</v>
+      </c>
+      <c r="AL65" s="5">
+        <f t="shared" si="159"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AM65" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.894</v>
+      </c>
+      <c r="AQ65" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR65" s="4">
+        <f t="shared" ref="AR65:AT65" si="160">AR48</f>
+        <v>0.13</v>
+      </c>
+      <c r="AS65" s="4">
+        <f t="shared" si="160"/>
+        <v>0.15</v>
+      </c>
+      <c r="AT65" s="5">
+        <f t="shared" si="160"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AU65" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.743</v>
+      </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:47">
       <c r="B66" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.12</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="111"/>
         <v>0.247</v>
       </c>
       <c r="F66" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="112"/>
         <v>0.245</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T66" s="4">
+        <f t="shared" ref="T66:V66" si="161">T49</f>
+        <v>0.13</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="161"/>
+        <v>0.13</v>
+      </c>
+      <c r="V66" s="5">
+        <f t="shared" si="161"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="W66" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.124</v>
+      </c>
+      <c r="AA66" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB66" s="4">
+        <f t="shared" ref="AB66:AD66" si="162">AB49</f>
+        <v>0.13</v>
+      </c>
+      <c r="AC66" s="4">
+        <f t="shared" si="162"/>
+        <v>0.13</v>
+      </c>
+      <c r="AD66" s="5">
+        <f t="shared" si="162"/>
+        <v>0.123</v>
+      </c>
+      <c r="AE66" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.566</v>
+      </c>
+      <c r="AI66" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ66" s="4">
+        <f t="shared" ref="AJ66:AL66" si="163">AJ49</f>
+        <v>0.13</v>
+      </c>
+      <c r="AK66" s="4">
+        <f t="shared" si="163"/>
+        <v>0.13</v>
+      </c>
+      <c r="AL66" s="5">
+        <f t="shared" si="163"/>
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AM66" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.18</v>
+      </c>
+      <c r="AQ66" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR66" s="4">
+        <f t="shared" ref="AR66:AT66" si="164">AR49</f>
+        <v>0.13</v>
+      </c>
+      <c r="AS66" s="4">
+        <f t="shared" si="164"/>
+        <v>0.13</v>
+      </c>
+      <c r="AT66" s="5">
+        <f t="shared" si="164"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AU66" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.536</v>
+      </c>
+    </row>
+    <row r="67" spans="2:47">
+      <c r="S67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T67" s="4">
+        <f t="shared" ref="T67:V67" si="165">T50</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U67" s="4">
+        <f t="shared" si="165"/>
+        <v>0.12</v>
+      </c>
+      <c r="V67" s="5">
+        <f t="shared" si="165"/>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="W67" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v>0.107</v>
+      </c>
+      <c r="AA67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB67" s="4">
+        <f t="shared" ref="AB67:AD67" si="166">AB50</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC67" s="4">
+        <f t="shared" si="166"/>
+        <v>0.12</v>
+      </c>
+      <c r="AD67" s="5">
+        <f t="shared" si="166"/>
+        <v>0.124</v>
+      </c>
+      <c r="AE67" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>0.565</v>
+      </c>
+      <c r="AI67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ67" s="4">
+        <f t="shared" ref="AJ67:AL67" si="167">AJ50</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AK67" s="4">
+        <f t="shared" si="167"/>
+        <v>0.12</v>
+      </c>
+      <c r="AL67" s="5">
+        <f t="shared" si="167"/>
+        <v>0.224</v>
+      </c>
+      <c r="AM67" s="12" t="str">
+        <f t="shared" si="122"/>
+        <v>0.293</v>
+      </c>
+      <c r="AQ67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR67" s="4">
+        <f t="shared" ref="AR67:AT67" si="168">AR50</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AS67" s="4">
+        <f t="shared" si="168"/>
+        <v>0.12</v>
+      </c>
+      <c r="AT67" s="5">
+        <f t="shared" si="168"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AU67" s="12" t="str">
+        <f t="shared" si="124"/>
+        <v>0.413</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="17">
+    <mergeCell ref="AI36:AM36"/>
+    <mergeCell ref="AI52:AM52"/>
+    <mergeCell ref="AI53:AM53"/>
+    <mergeCell ref="AQ36:AU36"/>
+    <mergeCell ref="AQ52:AU52"/>
+    <mergeCell ref="AQ53:AU53"/>
+    <mergeCell ref="S53:W53"/>
+    <mergeCell ref="S36:W36"/>
+    <mergeCell ref="S52:W52"/>
+    <mergeCell ref="AA36:AE36"/>
+    <mergeCell ref="AA52:AE52"/>
+    <mergeCell ref="AA53:AE53"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="I14:M14"/>
@@ -2980,8 +8186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC23D0E3-E727-DC46-BDD6-37116D0DB224}">
   <dimension ref="A1:CH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="43" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="BW2" sqref="BW2:CF33"/>
+    <sheetView topLeftCell="AR1" zoomScale="50" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AB66" sqref="AB66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
